--- a/trend_results/Rivers/WhanganuiatTeMaire_feb28a0ac0.xlsx
+++ b/trend_results/Rivers/WhanganuiatTeMaire_feb28a0ac0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W46"/>
+  <dimension ref="A1:W59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.913191332787528</v>
+        <v>0.086808667212472</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Very likely increasing</t>
+          <t>Very unlikely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.7479693877021441</v>
+        <v>0.252030612297856</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.973515349679162</v>
+        <v>0.026484650320838</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Extremely likely increasing</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -2389,7 +2389,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.941019468237121</v>
+        <v>0.058980531762879</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Very likely increasing</t>
+          <t>Very unlikely increasing</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2920,7 +2920,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D28" t="b">
         <v>1</v>
@@ -2931,13 +2931,13 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.0021620966733809</v>
+        <v>0.190228834407274</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0355329949238579</v>
+        <v>0.0457516339869281</v>
       </c>
       <c r="H28" t="n">
-        <v>0.441624365482233</v>
+        <v>0.38562091503268</v>
       </c>
       <c r="I28" t="n">
         <v>3</v>
@@ -2946,16 +2946,16 @@
         <v>0.9</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.0250858516483516</v>
+        <v>-0.0092351453855878</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.0413150339138999</v>
+        <v>-0.0308403696942036</v>
       </c>
       <c r="M28" t="n">
-        <v>-0.0112473080950171</v>
+        <v>0.0068982319978481</v>
       </c>
       <c r="N28" t="n">
-        <v>-2.78731684981685</v>
+        <v>-1.02612726506532</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -3007,14 +3007,14 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -3022,31 +3022,31 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.0565227111332056</v>
+        <v>0.231067628870721</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0614035087719298</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.166666666666667</v>
+        <v>0.801169590643275</v>
       </c>
       <c r="I29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0.013</v>
+        <v>10.53</v>
       </c>
       <c r="K29" t="n">
-        <v>0.0001258073306494</v>
+        <v>-0.0143989579184142</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>-0.0331833952199913</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0002866954474097</v>
+        <v>0.0105993279074829</v>
       </c>
       <c r="N29" t="n">
-        <v>0.96774869730383</v>
+        <v>-0.136742240440781</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3098,46 +3098,46 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>1.52872500553115e-06</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.0397727272727273</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.170454545454545</v>
+      </c>
+      <c r="I30" t="n">
         <v>1</v>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>0.475761432526447</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0.008810572687224599</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0.616740088105727</v>
-      </c>
-      <c r="I30" t="n">
-        <v>2</v>
-      </c>
       <c r="J30" t="n">
-        <v>133</v>
+        <v>0.012</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>0.0005017170329669999</v>
       </c>
       <c r="L30" t="n">
-        <v>-2.6280739475219</v>
+        <v>0.0003240905057675</v>
       </c>
       <c r="M30" t="n">
-        <v>2.08572251012915</v>
+        <v>0.000686974746246</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>4.18097527472527</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3177,7 +3177,7 @@
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3189,46 +3189,46 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.974491957360997</v>
+        <v>0.388770632732322</v>
       </c>
       <c r="G31" t="n">
-        <v>0.780952380952381</v>
+        <v>0.0114285714285714</v>
       </c>
       <c r="H31" t="n">
-        <v>0.247619047619048</v>
+        <v>0.662857142857143</v>
       </c>
       <c r="I31" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>0.005</v>
+        <v>130</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>0.387994320748501</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>-2.9945028391401</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>3.85408175834924</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>0.298457169806539</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3280,46 +3280,46 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.0226567350514579</v>
+        <v>0.0619915478139693</v>
       </c>
       <c r="G32" t="n">
-        <v>0.07177033492822971</v>
+        <v>0.835443037974684</v>
       </c>
       <c r="H32" t="n">
-        <v>0.751196172248804</v>
+        <v>0.189873417721519</v>
       </c>
       <c r="I32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J32" t="n">
-        <v>0.225</v>
+        <v>0.005</v>
       </c>
       <c r="K32" t="n">
-        <v>0.0017392857142857</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>5.09045036526622e-05</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0.0032958337557898</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0.773015873015873</v>
+        <v>0</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3371,46 +3371,46 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.0415931712441883</v>
+        <v>0.0043608696181109</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0131578947368421</v>
+        <v>0.376623376623377</v>
       </c>
       <c r="H33" t="n">
-        <v>0.780701754385965</v>
+        <v>0.11038961038961</v>
       </c>
       <c r="I33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J33" t="n">
-        <v>0.234</v>
+        <v>0.00275</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0016463296844816</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>2.30371092742157e-05</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0032195420245639</v>
+        <v>0.0001277214651961</v>
       </c>
       <c r="N33" t="n">
-        <v>0.703559694222927</v>
+        <v>0</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3450,7 +3450,7 @@
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3462,46 +3462,46 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D34" t="b">
         <v>1</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.0455085886424475</v>
+        <v>0.0583148711871685</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.06369426751592359</v>
       </c>
       <c r="H34" t="n">
-        <v>0.851528384279476</v>
+        <v>0.8535031847133761</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>4.66</v>
+        <v>0.2276</v>
       </c>
       <c r="K34" t="n">
-        <v>0.0383117196971178</v>
+        <v>0.0025422466910086</v>
       </c>
       <c r="L34" t="n">
-        <v>0.0016720229798984</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0.0779741977234833</v>
+        <v>0.0049465482187115</v>
       </c>
       <c r="N34" t="n">
-        <v>0.822139907663473</v>
+        <v>1.11698009271031</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3541,7 +3541,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3553,14 +3553,14 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -3568,31 +3568,31 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.08690292177497e-12</v>
+        <v>0.918590607449165</v>
       </c>
       <c r="G35" t="n">
-        <v>0.064327485380117</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.114035087719298</v>
+        <v>0.526946107784431</v>
       </c>
       <c r="I35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0.01</v>
+        <v>7.6</v>
       </c>
       <c r="K35" t="n">
-        <v>0.0002400460111901</v>
+        <v>0.0073864488216826</v>
       </c>
       <c r="L35" t="n">
-        <v>0.000180147868331</v>
+        <v>-0.0014282722427364</v>
       </c>
       <c r="M35" t="n">
-        <v>0.0002989362246572</v>
+        <v>0.0156981616615118</v>
       </c>
       <c r="N35" t="n">
-        <v>2.40046011190126</v>
+        <v>0.0971901160747714</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3601,7 +3601,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Very likely increasing</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3630,11 +3630,7 @@
           <t>Whai_3</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3644,46 +3640,46 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.999999998489828</v>
+        <v>0.0606997037381836</v>
       </c>
       <c r="G36" t="n">
-        <v>0.637770897832817</v>
+        <v>0.0056818181818181</v>
       </c>
       <c r="H36" t="n">
-        <v>0.337461300309598</v>
+        <v>0.8125</v>
       </c>
       <c r="I36" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>0.005</v>
+        <v>0.235</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>0.00197573238973</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>-0.0001389289146361</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>0.0043916579529044</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>0.840737187119183</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3692,7 +3688,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -3723,7 +3719,7 @@
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3735,11 +3731,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D37" t="b">
         <v>1</v>
@@ -3750,31 +3746,31 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.0256179152707925</v>
+        <v>0.267362260164147</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0588235294117647</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.535603715170279</v>
+        <v>0.607954545454545</v>
       </c>
       <c r="I37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.214</v>
+        <v>0.415</v>
       </c>
       <c r="K37" t="n">
-        <v>0.0008477949208083</v>
+        <v>0.0008335235052487001</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>-0.0024081087861109</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0017186420822917</v>
+        <v>0.004899782440484</v>
       </c>
       <c r="N37" t="n">
-        <v>0.396165850845001</v>
+        <v>0.200849037409336</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3783,7 +3779,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q37" t="n">
@@ -3814,7 +3810,7 @@
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3826,14 +3822,14 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -3841,31 +3837,31 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.195837737103064</v>
+        <v>0.207747867516454</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0087719298245614</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.690058479532164</v>
+        <v>0.380681818181818</v>
       </c>
       <c r="I38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0.2305</v>
+        <v>0.029</v>
       </c>
       <c r="K38" t="n">
-        <v>0.0004444782476422</v>
+        <v>0.0001793099230717</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.0003573713133525</v>
+        <v>-0.0002108225108225</v>
       </c>
       <c r="M38" t="n">
-        <v>0.0013655069351747</v>
+        <v>0.0005820810431773</v>
       </c>
       <c r="N38" t="n">
-        <v>0.19283221155845</v>
+        <v>0.618310079557698</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3921,7 +3917,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D39" t="b">
         <v>1</v>
@@ -3932,31 +3928,31 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.08921563312885</v>
+        <v>0.0722187396540268</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.719298245614035</v>
+        <v>0.886363636363636</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>4.215</v>
+        <v>4.275</v>
       </c>
       <c r="K39" t="n">
-        <v>0.0181736940567309</v>
+        <v>0.0479630100756573</v>
       </c>
       <c r="L39" t="n">
-        <v>-0.0026676031002292</v>
+        <v>-0.009064464063900299</v>
       </c>
       <c r="M39" t="n">
-        <v>0.0431197141475932</v>
+        <v>0.115621756703228</v>
       </c>
       <c r="N39" t="n">
-        <v>0.431167118783651</v>
+        <v>1.12194175615573</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4008,14 +4004,14 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -4023,31 +4019,31 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.40324797025367</v>
+        <v>0.0021620966733809</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>0.0355329949238579</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0.441624365482233</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J40" t="n">
-        <v>0.451</v>
+        <v>0.9</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.0138095557811416</v>
+        <v>-0.0250858516483516</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.18536900819186</v>
+        <v>-0.0413150339138999</v>
       </c>
       <c r="M40" t="n">
-        <v>0.0425421863742524</v>
+        <v>-0.0112473080950171</v>
       </c>
       <c r="N40" t="n">
-        <v>-3.06198576078528</v>
+        <v>-2.78731684981685</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4056,7 +4052,7 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q40" t="n">
@@ -4085,7 +4081,11 @@
           <t>Whai_3</t>
         </is>
       </c>
-      <c r="W40" t="inlineStr"/>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4095,11 +4095,11 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D41" t="b">
         <v>0</v>
@@ -4110,31 +4110,31 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.768783636774762</v>
+        <v>0.0565227111332056</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>0.0614035087719298</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J41" t="n">
-        <v>112.59</v>
+        <v>0.013</v>
       </c>
       <c r="K41" t="n">
-        <v>5.43176505085543</v>
+        <v>0.0001258073306494</v>
       </c>
       <c r="L41" t="n">
-        <v>-12.9833941226752</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>8.09264573565258</v>
+        <v>0.0002866954474097</v>
       </c>
       <c r="N41" t="n">
-        <v>4.82437609988048</v>
+        <v>0.96774869730383</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q41" t="n">
@@ -4172,7 +4172,11 @@
           <t>Whai_3</t>
         </is>
       </c>
-      <c r="W41" t="inlineStr"/>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4182,46 +4186,46 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.231216363225238</v>
+        <v>0.475761432526447</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>0.008810572687224599</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0.616740088105727</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J42" t="n">
-        <v>5.44</v>
+        <v>133</v>
       </c>
       <c r="K42" t="n">
-        <v>-0.431437932075763</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>-1.97743182255918</v>
+        <v>-2.6280739475219</v>
       </c>
       <c r="M42" t="n">
-        <v>0.573143504428141</v>
+        <v>2.08572251012915</v>
       </c>
       <c r="N42" t="n">
-        <v>-7.930844339628</v>
+        <v>0</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4230,7 +4234,7 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q42" t="n">
@@ -4259,7 +4263,11 @@
           <t>Whai_3</t>
         </is>
       </c>
-      <c r="W42" t="inlineStr"/>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4269,46 +4277,46 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D43" t="b">
         <v>0</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.237137175383665</v>
+        <v>0.974491957360997</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>0.780952380952381</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0.247619047619048</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J43" t="n">
-        <v>0.466</v>
+        <v>0.005</v>
       </c>
       <c r="K43" t="n">
-        <v>-0.0048783390410958</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.0152642439443505</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0.0109490402274953</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>-1.0468538714798</v>
+        <v>0</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4317,7 +4325,7 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q43" t="n">
@@ -4346,7 +4354,11 @@
           <t>Whai_3</t>
         </is>
       </c>
-      <c r="W43" t="inlineStr"/>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4356,46 +4368,46 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.5</v>
+        <v>0.0226567350514579</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>0.07177033492822971</v>
       </c>
       <c r="H44" t="n">
-        <v>0.9</v>
+        <v>0.751196172248804</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J44" t="n">
-        <v>110.295</v>
+        <v>0.225</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>0.0017392857142857</v>
       </c>
       <c r="L44" t="n">
-        <v>-2.32554794983911</v>
+        <v>5.09045036526622e-05</v>
       </c>
       <c r="M44" t="n">
-        <v>2.00430825398816</v>
+        <v>0.0032958337557898</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>0.773015873015873</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4404,7 +4416,7 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q44" t="n">
@@ -4433,7 +4445,11 @@
           <t>Whai_3</t>
         </is>
       </c>
-      <c r="W44" t="inlineStr"/>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4443,14 +4459,14 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -4458,31 +4474,31 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.5</v>
+        <v>0.0415931712441883</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0.780701754385965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J45" t="n">
-        <v>5.365</v>
+        <v>0.234</v>
       </c>
       <c r="K45" t="n">
-        <v>-0.0020359531772574</v>
+        <v>0.0016463296844816</v>
       </c>
       <c r="L45" t="n">
-        <v>-0.19966112155476</v>
+        <v>2.30371092742157e-05</v>
       </c>
       <c r="M45" t="n">
-        <v>0.221650461473961</v>
+        <v>0.0032195420245639</v>
       </c>
       <c r="N45" t="n">
-        <v>-0.037948801067241</v>
+        <v>0.703559694222927</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4491,7 +4507,7 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q45" t="n">
@@ -4520,7 +4536,11 @@
           <t>Whai_3</t>
         </is>
       </c>
-      <c r="W45" t="inlineStr"/>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4530,14 +4550,14 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C46" t="n">
         <v>20</v>
       </c>
       <c r="D46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -4545,31 +4565,31 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.615408445713287</v>
+        <v>0.0455085886424475</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.7</v>
+        <v>0.851528384279476</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>108.5</v>
+        <v>4.66</v>
       </c>
       <c r="K46" t="n">
-        <v>0.141417257606893</v>
+        <v>0.0383117196971178</v>
       </c>
       <c r="L46" t="n">
-        <v>-0.419843093388174</v>
+        <v>0.0016720229798984</v>
       </c>
       <c r="M46" t="n">
-        <v>0.663814435751601</v>
+        <v>0.0779741977234833</v>
       </c>
       <c r="N46" t="n">
-        <v>0.130338486273634</v>
+        <v>0.822139907663473</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4578,7 +4598,7 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q46" t="n">
@@ -4607,7 +4627,1162 @@
           <t>Whai_3</t>
         </is>
       </c>
-      <c r="W46" t="inlineStr"/>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Whanganui at Te Maire</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Dissolved Reactive Phosphorus</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>30</v>
+      </c>
+      <c r="D47" t="b">
+        <v>0</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>1.08690292177497e-12</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.064327485380117</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.114035087719298</v>
+      </c>
+      <c r="I47" t="n">
+        <v>2</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.0002400460111901</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.000180147868331</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.0002989362246572</v>
+      </c>
+      <c r="N47" t="n">
+        <v>2.40046011190126</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>1789705</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5687325</v>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>Te Maire</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>Whai_3</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Whanganui at Te Maire</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Ammoniacal Nitrogen (NH4)</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>30</v>
+      </c>
+      <c r="D48" t="b">
+        <v>0</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>0.999999998489828</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.637770897832817</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.337461300309598</v>
+      </c>
+      <c r="I48" t="n">
+        <v>9</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>1789705</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5687325</v>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>Te Maire</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Whai_3</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Whanganui at Te Maire</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>30</v>
+      </c>
+      <c r="D49" t="b">
+        <v>1</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>0.0256179152707925</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.0588235294117647</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.535603715170279</v>
+      </c>
+      <c r="I49" t="n">
+        <v>3</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.214</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.0008477949208083</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.0017186420822917</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.396165850845001</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>1789705</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5687325</v>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>Te Maire</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>Whai_3</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Whanganui at Te Maire</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>30</v>
+      </c>
+      <c r="D50" t="b">
+        <v>1</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>0.195837737103064</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.0087719298245614</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.690058479532164</v>
+      </c>
+      <c r="I50" t="n">
+        <v>3</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.2305</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.0004444782476422</v>
+      </c>
+      <c r="L50" t="n">
+        <v>-0.0003573713133525</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.0013655069351747</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.19283221155845</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>1789705</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5687325</v>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>Te Maire</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>Whai_3</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Whanganui at Te Maire</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>30</v>
+      </c>
+      <c r="D51" t="b">
+        <v>1</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>0.08921563312885</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.719298245614035</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>4.215</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.0181736940567309</v>
+      </c>
+      <c r="L51" t="n">
+        <v>-0.0026676031002292</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.0431197141475932</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.431167118783651</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>Very unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
+        <v>1789705</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5687325</v>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>Te Maire</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>Whai_3</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Whanganui at Te Maire</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>5</v>
+      </c>
+      <c r="D52" t="b">
+        <v>0</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>0.40324797025367</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.451</v>
+      </c>
+      <c r="K52" t="n">
+        <v>-0.0138095557811416</v>
+      </c>
+      <c r="L52" t="n">
+        <v>-0.18536900819186</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.0425421863742524</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-3.06198576078528</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q52" t="n">
+        <v>1789705</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5687325</v>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>Te Maire</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>Whai_3</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Whanganui at Te Maire</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>5</v>
+      </c>
+      <c r="D53" t="b">
+        <v>0</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>0.768783636774762</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>112.59</v>
+      </c>
+      <c r="K53" t="n">
+        <v>5.43176505085543</v>
+      </c>
+      <c r="L53" t="n">
+        <v>-12.9833941226752</v>
+      </c>
+      <c r="M53" t="n">
+        <v>8.09264573565258</v>
+      </c>
+      <c r="N53" t="n">
+        <v>4.82437609988048</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q53" t="n">
+        <v>1789705</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5687325</v>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>Te Maire</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>Whai_3</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Whanganui at Te Maire</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>5</v>
+      </c>
+      <c r="D54" t="b">
+        <v>0</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>0.231216363225238</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="K54" t="n">
+        <v>-0.431437932075763</v>
+      </c>
+      <c r="L54" t="n">
+        <v>-1.97743182255918</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.573143504428141</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-7.930844339628</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q54" t="n">
+        <v>1789705</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5687325</v>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>Te Maire</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>Whai_3</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Whanganui at Te Maire</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>10</v>
+      </c>
+      <c r="D55" t="b">
+        <v>0</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>0.237137175383665</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.466</v>
+      </c>
+      <c r="K55" t="n">
+        <v>-0.0048783390410958</v>
+      </c>
+      <c r="L55" t="n">
+        <v>-0.0152642439443505</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.0109490402274953</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-1.0468538714798</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q55" t="n">
+        <v>1789705</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5687325</v>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>Te Maire</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>Whai_3</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Whanganui at Te Maire</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>10</v>
+      </c>
+      <c r="D56" t="b">
+        <v>0</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>110.295</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>-2.32554794983911</v>
+      </c>
+      <c r="M56" t="n">
+        <v>2.00430825398816</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q56" t="n">
+        <v>1789705</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5687325</v>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>Te Maire</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>Whai_3</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Whanganui at Te Maire</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>10</v>
+      </c>
+      <c r="D57" t="b">
+        <v>0</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>5.365</v>
+      </c>
+      <c r="K57" t="n">
+        <v>-0.0020359531772574</v>
+      </c>
+      <c r="L57" t="n">
+        <v>-0.19966112155476</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.221650461473961</v>
+      </c>
+      <c r="N57" t="n">
+        <v>-0.037948801067241</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q57" t="n">
+        <v>1789705</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5687325</v>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>Te Maire</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>Whai_3</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Whanganui at Te Maire</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>15</v>
+      </c>
+      <c r="D58" t="b">
+        <v>0</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>0.801552810668512</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.7333333333333329</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>108</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.500914285714286</v>
+      </c>
+      <c r="L58" t="n">
+        <v>-0.38212566285967</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1.53377024033603</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.463809523809524</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q58" t="n">
+        <v>1789705</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5687325</v>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>Te Maire</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>Whai_3</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Whanganui at Te Maire</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>20</v>
+      </c>
+      <c r="D59" t="b">
+        <v>0</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>0.615408445713287</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>108.5</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.141417257606893</v>
+      </c>
+      <c r="L59" t="n">
+        <v>-0.419843093388174</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.663814435751601</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.130338486273634</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q59" t="n">
+        <v>1789705</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5687325</v>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>Te Maire</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>Whai_3</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/WhanganuiatTeMaire_feb28a0ac0.xlsx
+++ b/trend_results/Rivers/WhanganuiatTeMaire_feb28a0ac0.xlsx
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.74017149480794</v>
+        <v>0.030027867270261</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0740740740740741</v>
+        <v>0.0625</v>
       </c>
       <c r="H2" t="n">
-        <v>0.37037037037037</v>
+        <v>0.5</v>
       </c>
       <c r="I2" t="n">
         <v>2</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0267582417582418</v>
+        <v>-0.123861760619056</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.0496938775510204</v>
+        <v>-0.229356357927786</v>
       </c>
       <c r="M2" t="n">
-        <v>0.151242236024845</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.67582417582418</v>
+        <v>-14.571971837536</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -664,31 +664,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.086808667212472</v>
+        <v>0.001023866076834</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.929824561403509</v>
+        <v>0.945454545454545</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10.53</v>
+        <v>10.55</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.09836210366067109</v>
+        <v>-0.145641287284145</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.162389519365858</v>
+        <v>-0.200315016639136</v>
       </c>
       <c r="M3" t="n">
-        <v>0.008648845694206901</v>
+        <v>-0.0852155979172161</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.9341130452105521</v>
+        <v>-1.38048613539474</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Very unlikely increasing</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -751,17 +751,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.439618603645221</v>
+        <v>0.117305503934907</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.385964912280702</v>
+        <v>0.403508771929825</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -770,16 +770,16 @@
         <v>0.013</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>0.0006836808207611</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.0011858766233766</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0016831797235023</v>
+        <v>0.001695053219314</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>5.25908323662407</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -846,13 +846,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.182173063316776</v>
+        <v>0.0987396075580713</v>
       </c>
       <c r="G5" t="n">
         <v>0.0350877192982456</v>
       </c>
       <c r="H5" t="n">
-        <v>0.736842105263158</v>
+        <v>0.789473684210526</v>
       </c>
       <c r="I5" t="n">
         <v>2</v>
@@ -861,16 +861,16 @@
         <v>130</v>
       </c>
       <c r="K5" t="n">
-        <v>16.4086001489203</v>
+        <v>13.489125439578</v>
       </c>
       <c r="L5" t="n">
-        <v>-7.15830952660544</v>
+        <v>-2.28962498840915</v>
       </c>
       <c r="M5" t="n">
-        <v>61.0507377294805</v>
+        <v>45.2936038706254</v>
       </c>
       <c r="N5" t="n">
-        <v>12.6220001145541</v>
+        <v>10.3762503381369</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -937,13 +937,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.0453737500215642</v>
+        <v>0.283426290542196</v>
       </c>
       <c r="G6" t="n">
-        <v>0.770833333333333</v>
+        <v>0.803921568627451</v>
       </c>
       <c r="H6" t="n">
-        <v>0.25</v>
+        <v>0.215686274509804</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -970,7 +970,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1028,10 +1028,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.746730905028016</v>
+        <v>0.997388337329814</v>
       </c>
       <c r="G7" t="n">
-        <v>0.263157894736842</v>
+        <v>0.350877192982456</v>
       </c>
       <c r="H7" t="n">
         <v>0.12280701754386</v>
@@ -1043,16 +1043,16 @@
         <v>0.003</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>-0.0002851288056206</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.0003155676847294</v>
+        <v>-0.000597985722228</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>-9.504293520686961</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1119,31 +1119,31 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.943281809581909</v>
+        <v>0.0005950401917273</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0.982456140350877</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.231</v>
+        <v>0.262</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.0130446428571429</v>
+        <v>0.0315208253132218</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.0244050026683982</v>
+        <v>0.014718175958372</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.0017631742332712</v>
+        <v>0.053175942770925</v>
       </c>
       <c r="N8" t="n">
-        <v>-5.64703153988868</v>
+        <v>12.0308493561915</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1210,31 +1210,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.252030612297856</v>
+        <v>0.0557511508929009</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.736842105263158</v>
+        <v>0.701754385964912</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>7.57</v>
+        <v>7.58</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.0127007187292811</v>
+        <v>-0.0305118284493286</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0456066879960109</v>
+        <v>-0.0634018361764527</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0173724165365961</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.167776997744796</v>
+        <v>-0.402530718328873</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Very unlikely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1297,31 +1297,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.899977472745335</v>
+        <v>0.0003469188754496</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.947368421052632</v>
+        <v>0.982456140350877</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.245</v>
+        <v>0.272</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.0125761888318864</v>
+        <v>0.0425786886347348</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.0250845254015035</v>
+        <v>0.0173271249594668</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0023736416598967</v>
+        <v>0.0534090608742422</v>
       </c>
       <c r="N10" t="n">
-        <v>-5.13313829872912</v>
+        <v>15.6539296451231</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -1384,35 +1384,35 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.5</v>
+        <v>0.0039849400587781</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0175438596491228</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.526315789473684</v>
+        <v>0.736842105263158</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>9</v>
+        <v>0.42</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>0.0426459478021978</v>
       </c>
       <c r="L11" t="n">
-        <v>-1.00343406593407</v>
+        <v>0.0210817834442764</v>
       </c>
       <c r="M11" t="n">
-        <v>1.50163371997343</v>
+        <v>0.0822985948283589</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>10.1537970957614</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1464,14 +1464,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1479,31 +1479,31 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.840630968117061</v>
+        <v>0.006194044191948</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.684210526315789</v>
+        <v>0.649122807017544</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.4</v>
+        <v>0.031</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.0101327165481577</v>
+        <v>0.0036552526420947</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.0345399414944681</v>
+        <v>0.0012570455081444</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0036280850495274</v>
+        <v>0.0065833370725558</v>
       </c>
       <c r="N12" t="n">
-        <v>-2.53317913703943</v>
+        <v>11.7911375551443</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1555,14 +1555,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>5</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1570,31 +1570,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.106180416435662</v>
+        <v>0.0414865303622063</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.649122807017544</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.031</v>
+        <v>5.04</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0018150440757065</v>
+        <v>0.813367692387057</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.0005733908948194</v>
+        <v>0.0510675227586623</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0044331790689393</v>
+        <v>1.99710428107548</v>
       </c>
       <c r="N13" t="n">
-        <v>5.85498088937583</v>
+        <v>16.1382478648226</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1646,14 +1646,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1661,31 +1661,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.353127981052426</v>
+        <v>0.158072507251409</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.0612244897959184</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0.357142857142857</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J14" t="n">
-        <v>5.41</v>
+        <v>0.9</v>
       </c>
       <c r="K14" t="n">
-        <v>0.122976541158631</v>
+        <v>-0.0196160042964554</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.296832333534069</v>
+        <v>-0.0627454062287006</v>
       </c>
       <c r="M14" t="n">
-        <v>0.76743778810096</v>
+        <v>0.0076041673731192</v>
       </c>
       <c r="N14" t="n">
-        <v>2.27313384766415</v>
+        <v>-2.17955603293949</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -1748,35 +1748,35 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.6892204426117861</v>
+        <v>0.037459533889564</v>
       </c>
       <c r="G15" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.33</v>
+        <v>0.875</v>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9</v>
+        <v>10.53</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>-0.040082304526749</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.0330758455131896</v>
+        <v>-0.0702403846153845</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0524606263365815</v>
+        <v>-0.0056715084871636</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>-0.380648665971026</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1828,14 +1828,14 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>10</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1843,31 +1843,31 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.026484650320838</v>
+        <v>0.95124481969737</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.849557522123894</v>
+        <v>0.247863247863248</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>10.47</v>
+        <v>0.015</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.0398502099404355</v>
+        <v>-0.0003259485159056</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.07596880131362881</v>
+        <v>-0.0006929561970147</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.007986819095293</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.380613275457837</v>
+        <v>-2.17299010603793</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Extremely unlikely increasing</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1919,14 +1919,14 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>10</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1934,31 +1934,31 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.7791591949412831</v>
+        <v>0.0225924946797752</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0170940170940171</v>
+        <v>0.0172413793103448</v>
       </c>
       <c r="H17" t="n">
-        <v>0.256410256410256</v>
+        <v>0.637931034482759</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>0.015</v>
+        <v>131.5</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.0001365931189229</v>
+        <v>6.69724958949097</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.0006007169584616</v>
+        <v>1.84600111074251</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0001735920493139</v>
+        <v>14.4246068560941</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.910620792819746</v>
+        <v>5.09296546729351</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2010,46 +2010,46 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>10</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.145664446357921</v>
+        <v>0.154720301045927</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0172413793103448</v>
+        <v>0.836538461538462</v>
       </c>
       <c r="H18" t="n">
-        <v>0.646551724137931</v>
+        <v>0.182692307692308</v>
       </c>
       <c r="I18" t="n">
         <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>125</v>
+        <v>0.005</v>
       </c>
       <c r="K18" t="n">
-        <v>4.43145293978336</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>-2.49413627294475</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>10.8023610177389</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>3.54516235182669</v>
+        <v>0</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2112,35 +2112,35 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.0542011643533289</v>
+        <v>0.999668704848504</v>
       </c>
       <c r="G19" t="n">
-        <v>0.831683168316832</v>
+        <v>0.239316239316239</v>
       </c>
       <c r="H19" t="n">
-        <v>0.188118811881188</v>
+        <v>0.136752136752137</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0.005</v>
+        <v>0.003</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>-0.0001999178981937</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>-0.0003410364145658</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>-6.66392993979201</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2192,46 +2192,46 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>10</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.9785977794888</v>
+        <v>0.0003027728659991</v>
       </c>
       <c r="G20" t="n">
-        <v>0.196581196581197</v>
+        <v>0.0598290598290598</v>
       </c>
       <c r="H20" t="n">
-        <v>0.145299145299145</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>0.003</v>
+        <v>0.239</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>0.0072247252747252</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.0002731862378459</v>
+        <v>0.003279528947166</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>0.0138357616162184</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>3.02289760448756</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2283,14 +2283,14 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>10</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -2298,31 +2298,31 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.129942529836111</v>
+        <v>0.010829870800753</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0683760683760684</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.897435897435897</v>
+        <v>0.539823008849557</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.218</v>
+        <v>7.61</v>
       </c>
       <c r="K21" t="n">
-        <v>0.002484693877551</v>
+        <v>-0.01385381280875</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.0008631495819032</v>
+        <v>-0.0240565929992787</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0060612818631921</v>
+        <v>-0.003920316316867</v>
       </c>
       <c r="N21" t="n">
-        <v>1.139767833739</v>
+        <v>-0.182047474490801</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2360,11 +2360,7 @@
           <t>Whai_3</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2374,14 +2370,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>10</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2389,31 +2385,31 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.058980531762879</v>
+        <v>6.550064163755769e-05</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.008547008547008499</v>
       </c>
       <c r="H22" t="n">
-        <v>0.563636363636364</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>7.62</v>
+        <v>0.255</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.010758468335788</v>
+        <v>0.009845013477088899</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.0214957047355767</v>
+        <v>0.005389906918714</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>0.0161919801115535</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.141187248501155</v>
+        <v>3.86078959885841</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2422,7 +2418,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Very unlikely increasing</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2451,7 +2447,11 @@
           <t>Whai_3</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr"/>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -2476,31 +2476,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.0387132644702487</v>
+        <v>0.0382890816715487</v>
       </c>
       <c r="G23" t="n">
-        <v>0.008547008547008499</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.829059829059829</v>
+        <v>0.615384615384615</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.235</v>
+        <v>0.42</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0041676175262437</v>
+        <v>0.0070015974440894</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0001241675275735</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0.008186106675961501</v>
+        <v>0.0171990173386323</v>
       </c>
       <c r="N23" t="n">
-        <v>1.77345426648669</v>
+        <v>1.66704701049749</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2552,46 +2552,46 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>10</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.542941008771555</v>
+        <v>0.0193314839046293</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0170940170940171</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.393162393162393</v>
+        <v>0.452991452991453</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>10</v>
+        <v>0.031</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>0.000871462193664</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.49829553965416</v>
+        <v>0.000128269938703</v>
       </c>
       <c r="M24" t="n">
-        <v>0.333056057163411</v>
+        <v>0.0016860660306558</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>2.81116836665831</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2643,7 +2643,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2654,35 +2654,35 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.415018568045533</v>
+        <v>0.0606233533692331</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.675213675213675</v>
+        <v>0.948717948717949</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.408</v>
+        <v>4.66</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>0.1113364422202</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.0050171703296703</v>
+        <v>-0.0164170354159735</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0067419644012635</v>
+        <v>0.457332725401873</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>2.38919403906009</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2734,14 +2734,14 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -2749,31 +2749,31 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.156447637667351</v>
+        <v>0.066210788191677</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.0476190476190476</v>
       </c>
       <c r="H26" t="n">
-        <v>0.452991452991453</v>
+        <v>0.387755102040816</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J26" t="n">
-        <v>0.03</v>
+        <v>0.9</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0004199499611348</v>
+        <v>-0.0204497898823112</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.0002902371555572</v>
+        <v>-0.0498688258695859</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0012423469387755</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1.39983320378287</v>
+        <v>-2.27219887581236</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -2825,11 +2825,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
@@ -2840,31 +2840,31 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.415377764920461</v>
+        <v>0.41992894764238</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.9401709401709401</v>
+        <v>0.7928994082840241</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>5.25</v>
+        <v>10.47</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0216716111364674</v>
+        <v>-0.0050171703296702</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.143212958298327</v>
+        <v>-0.0298777249088116</v>
       </c>
       <c r="M27" t="n">
-        <v>0.123885577146092</v>
+        <v>0.0177382815097695</v>
       </c>
       <c r="N27" t="n">
-        <v>0.412792593075569</v>
+        <v>-0.0479194873894004</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2916,46 +2916,46 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C28" t="n">
         <v>15</v>
       </c>
       <c r="D28" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>1.68085127463757e-05</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.0340909090909091</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.170454545454545</v>
+      </c>
+      <c r="I28" t="n">
         <v>1</v>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>0.190228834407274</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0.0457516339869281</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0.38562091503268</v>
-      </c>
-      <c r="I28" t="n">
-        <v>3</v>
-      </c>
       <c r="J28" t="n">
-        <v>0.9</v>
+        <v>0.013</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.0092351453855878</v>
+        <v>0.0004271520354009</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.0308403696942036</v>
+        <v>0.0002523218240047</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0068982319978481</v>
+        <v>0.0005983781127129</v>
       </c>
       <c r="N28" t="n">
-        <v>-1.02612726506532</v>
+        <v>3.2857848876998</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3007,7 +3007,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -3022,31 +3022,31 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.231067628870721</v>
+        <v>0.228568912887875</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.0114285714285714</v>
       </c>
       <c r="H29" t="n">
-        <v>0.801169590643275</v>
+        <v>0.662857142857143</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J29" t="n">
-        <v>10.53</v>
+        <v>130</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.0143989579184142</v>
+        <v>1.7313926581596</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.0331833952199913</v>
+        <v>-2.11880336658595</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0105993279074829</v>
+        <v>4.62902720628175</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.136742240440781</v>
+        <v>1.33184050627661</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3098,7 +3098,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3109,35 +3109,35 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.52872500553115e-06</v>
+        <v>0.310607017349685</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0397727272727273</v>
+        <v>0.829113924050633</v>
       </c>
       <c r="H30" t="n">
-        <v>0.170454545454545</v>
+        <v>0.19620253164557</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J30" t="n">
-        <v>0.012</v>
+        <v>0.005</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0005017170329669999</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0.0003240905057675</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0.000686974746246</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>4.18097527472527</v>
+        <v>0</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3189,46 +3189,46 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>15</v>
       </c>
       <c r="D31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.388770632732322</v>
+        <v>0.0770460824734579</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0114285714285714</v>
+        <v>0.391566265060241</v>
       </c>
       <c r="H31" t="n">
-        <v>0.662857142857143</v>
+        <v>0.102409638554217</v>
       </c>
       <c r="I31" t="n">
         <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>130</v>
+        <v>0.0025</v>
       </c>
       <c r="K31" t="n">
-        <v>0.387994320748501</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>-2.9945028391401</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>3.85408175834924</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0.298457169806539</v>
+        <v>0</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3280,46 +3280,46 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.0619915478139693</v>
+        <v>0.0013196898691457</v>
       </c>
       <c r="G32" t="n">
-        <v>0.835443037974684</v>
+        <v>0.0602409638554217</v>
       </c>
       <c r="H32" t="n">
-        <v>0.189873417721519</v>
+        <v>0.86144578313253</v>
       </c>
       <c r="I32" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>0.005</v>
+        <v>0.237</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>0.0044485576923076</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>0.0020465999088974</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>0.0072982855903395</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1.87702856215514</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3371,46 +3371,46 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C33" t="n">
         <v>15</v>
       </c>
       <c r="D33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.0043608696181109</v>
+        <v>0.247602731185065</v>
       </c>
       <c r="G33" t="n">
-        <v>0.376623376623377</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.11038961038961</v>
+        <v>0.491017964071856</v>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.00275</v>
+        <v>7.61</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>-0.0033034717416803</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>-0.0107281029753577</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0001277214651961</v>
+        <v>0.0039972101637835</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>-0.0434096155279942</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3448,11 +3448,7 @@
           <t>Whai_3</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3462,7 +3458,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3473,35 +3469,35 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.0583148711871685</v>
+        <v>0.0020140556051688</v>
       </c>
       <c r="G34" t="n">
-        <v>0.06369426751592359</v>
+        <v>0.0056818181818181</v>
       </c>
       <c r="H34" t="n">
-        <v>0.8535031847133761</v>
+        <v>0.886363636363636</v>
       </c>
       <c r="I34" t="n">
         <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>0.2276</v>
+        <v>0.24745</v>
       </c>
       <c r="K34" t="n">
-        <v>0.0025422466910086</v>
+        <v>0.0044611916925988</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>0.0017938279294199</v>
       </c>
       <c r="M34" t="n">
-        <v>0.0049465482187115</v>
+        <v>0.0070451636093989</v>
       </c>
       <c r="N34" t="n">
-        <v>1.11698009271031</v>
+        <v>1.80286590931456</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3510,7 +3506,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3541,7 +3537,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3553,7 +3549,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -3568,31 +3564,31 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.918590607449165</v>
+        <v>0.07377487020937371</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.526946107784431</v>
+        <v>0.613636363636364</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>7.6</v>
+        <v>0.425</v>
       </c>
       <c r="K35" t="n">
-        <v>0.0073864488216826</v>
+        <v>0.0025025693730729</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.0014282722427364</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0.0156981616615118</v>
+        <v>0.0071477495107632</v>
       </c>
       <c r="N35" t="n">
-        <v>0.0971901160747714</v>
+        <v>0.5888398524877561</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3601,7 +3597,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Very likely increasing</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3630,7 +3626,11 @@
           <t>Whai_3</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr"/>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3640,14 +3640,14 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C36" t="n">
         <v>15</v>
       </c>
       <c r="D36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -3655,31 +3655,31 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.0606997037381836</v>
+        <v>0.110238375871687</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0056818181818181</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.8125</v>
+        <v>0.392045454545455</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.235</v>
+        <v>0.03</v>
       </c>
       <c r="K36" t="n">
-        <v>0.00197573238973</v>
+        <v>0.0002674192575716</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.0001389289146361</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0.0043916579529044</v>
+        <v>0.0007234234157901</v>
       </c>
       <c r="N36" t="n">
-        <v>0.840737187119183</v>
+        <v>0.891397525238987</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -3731,7 +3731,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3746,31 +3746,31 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.267362260164147</v>
+        <v>0.128158633407645</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.607954545454545</v>
+        <v>0.880681818181818</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.415</v>
+        <v>4.35</v>
       </c>
       <c r="K37" t="n">
-        <v>0.0008335235052487001</v>
+        <v>0.0395110295909911</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.0024081087861109</v>
+        <v>-0.028987595913236</v>
       </c>
       <c r="M37" t="n">
-        <v>0.004899782440484</v>
+        <v>0.114577881164506</v>
       </c>
       <c r="N37" t="n">
-        <v>0.200849037409336</v>
+        <v>0.908299530827381</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -3822,14 +3822,14 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -3837,31 +3837,31 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.207747867516454</v>
+        <v>0.000504600336758</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>0.0358974358974359</v>
       </c>
       <c r="H38" t="n">
-        <v>0.380681818181818</v>
+        <v>0.435897435897436</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J38" t="n">
-        <v>0.029</v>
+        <v>0.9</v>
       </c>
       <c r="K38" t="n">
-        <v>0.0001793099230717</v>
+        <v>-0.0285798122065728</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.0002108225108225</v>
+        <v>-0.0448803919470567</v>
       </c>
       <c r="M38" t="n">
-        <v>0.0005820810431773</v>
+        <v>-0.0143184650421442</v>
       </c>
       <c r="N38" t="n">
-        <v>0.618310079557698</v>
+        <v>-3.1755346896192</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3870,7 +3870,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q38" t="n">
@@ -3901,7 +3901,7 @@
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -3913,46 +3913,46 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D39" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.134239590549134</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.0391304347826087</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.165217391304348</v>
+      </c>
+      <c r="I39" t="n">
         <v>1</v>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>0.0722187396540268</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0.886363636363636</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
       <c r="J39" t="n">
-        <v>4.275</v>
+        <v>0.013</v>
       </c>
       <c r="K39" t="n">
-        <v>0.0479630100756573</v>
+        <v>7.287509976057459e-05</v>
       </c>
       <c r="L39" t="n">
-        <v>-0.009064464063900299</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0.115621756703228</v>
+        <v>0.0002147266313932</v>
       </c>
       <c r="N39" t="n">
-        <v>1.12194175615573</v>
+        <v>0.560577690465958</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q39" t="n">
@@ -3992,7 +3992,7 @@
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4004,7 +4004,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -4019,31 +4019,31 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.0021620966733809</v>
+        <v>0.460156937482764</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0355329949238579</v>
+        <v>0.0087336244541484</v>
       </c>
       <c r="H40" t="n">
-        <v>0.441624365482233</v>
+        <v>0.62882096069869</v>
       </c>
       <c r="I40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J40" t="n">
-        <v>0.9</v>
+        <v>133</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.0250858516483516</v>
+        <v>0.08697496216733561</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.0413150339138999</v>
+        <v>-2.67004108888334</v>
       </c>
       <c r="M40" t="n">
-        <v>-0.0112473080950171</v>
+        <v>2.27434546882244</v>
       </c>
       <c r="N40" t="n">
-        <v>-2.78731684981685</v>
+        <v>0.0653947083964929</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q40" t="n">
@@ -4083,7 +4083,7 @@
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -4095,7 +4095,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -4106,35 +4106,35 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.0565227111332056</v>
+        <v>0.96502402671521</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0614035087719298</v>
+        <v>0.797169811320755</v>
       </c>
       <c r="H41" t="n">
-        <v>0.166666666666667</v>
+        <v>0.231132075471698</v>
       </c>
       <c r="I41" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J41" t="n">
-        <v>0.013</v>
+        <v>0.005</v>
       </c>
       <c r="K41" t="n">
-        <v>0.0001258073306494</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0.0002866954474097</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0.96774869730383</v>
+        <v>0</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q41" t="n">
@@ -4186,7 +4186,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -4197,35 +4197,35 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.475761432526447</v>
+        <v>0.0016396543036112</v>
       </c>
       <c r="G42" t="n">
-        <v>0.008810572687224599</v>
+        <v>0.0616113744075829</v>
       </c>
       <c r="H42" t="n">
-        <v>0.616740088105727</v>
+        <v>0.777251184834123</v>
       </c>
       <c r="I42" t="n">
         <v>2</v>
       </c>
       <c r="J42" t="n">
-        <v>133</v>
+        <v>0.237</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>0.0029215125289605</v>
       </c>
       <c r="L42" t="n">
-        <v>-2.6280739475219</v>
+        <v>0.0011028619604614</v>
       </c>
       <c r="M42" t="n">
-        <v>2.08572251012915</v>
+        <v>0.0047544717525216</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>1.23270570842218</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q42" t="n">
@@ -4265,7 +4265,7 @@
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4277,46 +4277,46 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C43" t="n">
         <v>20</v>
       </c>
       <c r="D43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.974491957360997</v>
+        <v>0.0043551334757387</v>
       </c>
       <c r="G43" t="n">
-        <v>0.780952380952381</v>
+        <v>0.008695652173913</v>
       </c>
       <c r="H43" t="n">
-        <v>0.247619047619048</v>
+        <v>0.839130434782609</v>
       </c>
       <c r="I43" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J43" t="n">
-        <v>0.005</v>
+        <v>0.25025</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>0.002681718061674</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>0.0009998646769299999</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>0.0045653265857906</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>1.07161560906054</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4325,7 +4325,7 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q43" t="n">
@@ -4356,7 +4356,7 @@
       </c>
       <c r="W43" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -4368,7 +4368,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -4379,35 +4379,35 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.0226567350514579</v>
+        <v>0.0805179025657824</v>
       </c>
       <c r="G44" t="n">
-        <v>0.07177033492822971</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.751196172248804</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="I44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0.225</v>
+        <v>4.66</v>
       </c>
       <c r="K44" t="n">
-        <v>0.0017392857142857</v>
+        <v>0.0375192702980473</v>
       </c>
       <c r="L44" t="n">
-        <v>5.09045036526622e-05</v>
+        <v>-0.008302377555381499</v>
       </c>
       <c r="M44" t="n">
-        <v>0.0032958337557898</v>
+        <v>0.0804547551741451</v>
       </c>
       <c r="N44" t="n">
-        <v>0.773015873015873</v>
+        <v>0.805134555752088</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4416,7 +4416,7 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q44" t="n">
@@ -4447,7 +4447,7 @@
       </c>
       <c r="W44" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -4459,14 +4459,14 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -4474,31 +4474,31 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.0415931712441883</v>
+        <v>4.12370838710653e-12</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0131578947368421</v>
+        <v>0.0555555555555556</v>
       </c>
       <c r="H45" t="n">
-        <v>0.780701754385965</v>
+        <v>0.114035087719298</v>
       </c>
       <c r="I45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J45" t="n">
-        <v>0.234</v>
+        <v>0.011</v>
       </c>
       <c r="K45" t="n">
-        <v>0.0016463296844816</v>
+        <v>0.0002287626047469</v>
       </c>
       <c r="L45" t="n">
-        <v>2.30371092742157e-05</v>
+        <v>0.0001717294580282</v>
       </c>
       <c r="M45" t="n">
-        <v>0.0032195420245639</v>
+        <v>0.0002854311691188</v>
       </c>
       <c r="N45" t="n">
-        <v>0.703559694222927</v>
+        <v>2.07966004315443</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4507,7 +4507,7 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q45" t="n">
@@ -4538,7 +4538,7 @@
       </c>
       <c r="W45" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4550,46 +4550,46 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.0455085886424475</v>
+        <v>0.999999999997255</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.643962848297214</v>
       </c>
       <c r="H46" t="n">
-        <v>0.851528384279476</v>
+        <v>0.325077399380805</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J46" t="n">
-        <v>4.66</v>
+        <v>0.005</v>
       </c>
       <c r="K46" t="n">
-        <v>0.0383117196971178</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0.0016720229798984</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0.0779741977234833</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0.822139907663473</v>
+        <v>0</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q46" t="n">
@@ -4629,7 +4629,7 @@
       </c>
       <c r="W46" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4641,14 +4641,14 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C47" t="n">
         <v>30</v>
       </c>
       <c r="D47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -4656,31 +4656,31 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.08690292177497e-12</v>
+        <v>0.0003421375569271</v>
       </c>
       <c r="G47" t="n">
-        <v>0.064327485380117</v>
+        <v>0.0588235294117647</v>
       </c>
       <c r="H47" t="n">
-        <v>0.114035087719298</v>
+        <v>0.5665634674922601</v>
       </c>
       <c r="I47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J47" t="n">
-        <v>0.01</v>
+        <v>0.22</v>
       </c>
       <c r="K47" t="n">
-        <v>0.0002400460111901</v>
+        <v>0.0017237332339791</v>
       </c>
       <c r="L47" t="n">
-        <v>0.000180147868331</v>
+        <v>0.0007543223456023</v>
       </c>
       <c r="M47" t="n">
-        <v>0.0002989362246572</v>
+        <v>0.0026761369258341</v>
       </c>
       <c r="N47" t="n">
-        <v>2.40046011190126</v>
+        <v>0.783515106354152</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4732,46 +4732,46 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C48" t="n">
         <v>30</v>
       </c>
       <c r="D48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.999999998489828</v>
+        <v>0.0165825031854001</v>
       </c>
       <c r="G48" t="n">
-        <v>0.637770897832817</v>
+        <v>0.0087719298245614</v>
       </c>
       <c r="H48" t="n">
-        <v>0.337461300309598</v>
+        <v>0.763157894736842</v>
       </c>
       <c r="I48" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J48" t="n">
-        <v>0.005</v>
+        <v>0.24055</v>
       </c>
       <c r="K48" t="n">
-        <v>0</v>
+        <v>0.0012305818612274</v>
       </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>0.0002599746109309</v>
       </c>
       <c r="M48" t="n">
-        <v>0</v>
+        <v>0.0021685153117411</v>
       </c>
       <c r="N48" t="n">
-        <v>0</v>
+        <v>0.511570094045922</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4780,7 +4780,7 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q48" t="n">
@@ -4811,7 +4811,7 @@
       </c>
       <c r="W48" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -4823,7 +4823,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -4838,31 +4838,31 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.0256179152707925</v>
+        <v>0.137904903783677</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0588235294117647</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.535603715170279</v>
+        <v>0.730994152046784</v>
       </c>
       <c r="I49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>0.214</v>
+        <v>4.35</v>
       </c>
       <c r="K49" t="n">
-        <v>0.0008477949208083</v>
+        <v>0.0168140632054561</v>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>-0.0089516720443262</v>
       </c>
       <c r="M49" t="n">
-        <v>0.0017186420822917</v>
+        <v>0.0431220628781364</v>
       </c>
       <c r="N49" t="n">
-        <v>0.396165850845001</v>
+        <v>0.386530188631175</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4871,7 +4871,7 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q49" t="n">
@@ -4902,7 +4902,7 @@
       </c>
       <c r="W49" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -4914,46 +4914,46 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D50" t="b">
+        <v>0</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>0.889664319040077</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
         <v>1</v>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>0.195837737103064</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0.0087719298245614</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0.690058479532164</v>
-      </c>
       <c r="I50" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>0.2305</v>
+        <v>0.451</v>
       </c>
       <c r="K50" t="n">
-        <v>0.0004444782476422</v>
+        <v>0.0302617899294328</v>
       </c>
       <c r="L50" t="n">
-        <v>-0.0003573713133525</v>
+        <v>-0.0115126706533204</v>
       </c>
       <c r="M50" t="n">
-        <v>0.0013655069351747</v>
+        <v>0.0602954804052944</v>
       </c>
       <c r="N50" t="n">
-        <v>0.19283221155845</v>
+        <v>6.70993124821126</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q50" t="n">
@@ -4991,11 +4991,7 @@
           <t>Whai_3</t>
         </is>
       </c>
-      <c r="W50" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
+      <c r="W50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -5005,46 +5001,46 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D51" t="b">
+        <v>0</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>0.95679463351315</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
         <v>1</v>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F51" t="n">
-        <v>0.08921563312885</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0.719298245614035</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>4.215</v>
+        <v>112.59</v>
       </c>
       <c r="K51" t="n">
-        <v>0.0181736940567309</v>
+        <v>5.64838120644171</v>
       </c>
       <c r="L51" t="n">
-        <v>-0.0026676031002292</v>
+        <v>0.447178861232418</v>
       </c>
       <c r="M51" t="n">
-        <v>0.0431197141475932</v>
+        <v>8.09264573565258</v>
       </c>
       <c r="N51" t="n">
-        <v>0.431167118783651</v>
+        <v>5.01676987871188</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5053,7 +5049,7 @@
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q51" t="n">
@@ -5082,11 +5078,7 @@
           <t>Whai_3</t>
         </is>
       </c>
-      <c r="W51" t="inlineStr">
-        <is>
-          <t>NTU/FNU</t>
-        </is>
-      </c>
+      <c r="W51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -5096,7 +5088,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -5111,7 +5103,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0.40324797025367</v>
+        <v>0.768783636774762</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
@@ -5123,19 +5115,19 @@
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>0.451</v>
+        <v>5.44</v>
       </c>
       <c r="K52" t="n">
-        <v>-0.0138095557811416</v>
+        <v>0.41059448765074</v>
       </c>
       <c r="L52" t="n">
-        <v>-0.18536900819186</v>
+        <v>-0.395459341572689</v>
       </c>
       <c r="M52" t="n">
-        <v>0.0425421863742524</v>
+        <v>0.951425624635427</v>
       </c>
       <c r="N52" t="n">
-        <v>-3.06198576078528</v>
+        <v>7.54769278769742</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5144,7 +5136,7 @@
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q52" t="n">
@@ -5183,11 +5175,11 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D53" t="b">
         <v>0</v>
@@ -5198,7 +5190,7 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0.768783636774762</v>
+        <v>0.5</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -5210,19 +5202,19 @@
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>112.59</v>
+        <v>0.466</v>
       </c>
       <c r="K53" t="n">
-        <v>5.43176505085543</v>
+        <v>0.0004768276762402</v>
       </c>
       <c r="L53" t="n">
-        <v>-12.9833941226752</v>
+        <v>-0.0126545337342441</v>
       </c>
       <c r="M53" t="n">
-        <v>8.09264573565258</v>
+        <v>0.0250900646183431</v>
       </c>
       <c r="N53" t="n">
-        <v>4.82437609988048</v>
+        <v>0.102323535673865</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -5231,7 +5223,7 @@
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q53" t="n">
@@ -5270,11 +5262,11 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D54" t="b">
         <v>0</v>
@@ -5285,31 +5277,31 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0.231216363225238</v>
+        <v>0.878482519852739</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>5.44</v>
+        <v>110.295</v>
       </c>
       <c r="K54" t="n">
-        <v>-0.431437932075763</v>
+        <v>1.41297404844291</v>
       </c>
       <c r="L54" t="n">
-        <v>-1.97743182255918</v>
+        <v>-0.313996542118926</v>
       </c>
       <c r="M54" t="n">
-        <v>0.573143504428141</v>
+        <v>2.63108519213877</v>
       </c>
       <c r="N54" t="n">
-        <v>-7.930844339628</v>
+        <v>1.28108622189846</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -5318,7 +5310,7 @@
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q54" t="n">
@@ -5357,7 +5349,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -5372,7 +5364,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0.237137175383665</v>
+        <v>0.8584345646688269</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
@@ -5384,19 +5376,19 @@
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>0.466</v>
+        <v>5.365</v>
       </c>
       <c r="K55" t="n">
-        <v>-0.0048783390410958</v>
+        <v>0.165604119765871</v>
       </c>
       <c r="L55" t="n">
-        <v>-0.0152642439443505</v>
+        <v>-0.0740084822294708</v>
       </c>
       <c r="M55" t="n">
-        <v>0.0109490402274953</v>
+        <v>0.413410125448037</v>
       </c>
       <c r="N55" t="n">
-        <v>-1.0468538714798</v>
+        <v>3.08674966944774</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -5405,7 +5397,7 @@
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q55" t="n">
@@ -5444,46 +5436,46 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D56" t="b">
         <v>0</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>0.5</v>
+        <v>0.8857800955056619</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>110.295</v>
+        <v>0.4555</v>
       </c>
       <c r="K56" t="n">
-        <v>0</v>
+        <v>0.0070413584398117</v>
       </c>
       <c r="L56" t="n">
-        <v>-2.32554794983911</v>
+        <v>-0.0043838161702568</v>
       </c>
       <c r="M56" t="n">
-        <v>2.00430825398816</v>
+        <v>0.0178537169537173</v>
       </c>
       <c r="N56" t="n">
-        <v>0</v>
+        <v>1.5458525663692</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -5492,7 +5484,7 @@
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q56" t="n">
@@ -5531,11 +5523,11 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D57" t="b">
         <v>0</v>
@@ -5546,31 +5538,31 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>0.5</v>
+        <v>0.787088110490277</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>5.365</v>
+        <v>112.59</v>
       </c>
       <c r="K57" t="n">
-        <v>-0.0020359531772574</v>
+        <v>0.406171809841535</v>
       </c>
       <c r="L57" t="n">
-        <v>-0.19966112155476</v>
+        <v>-0.382027468825085</v>
       </c>
       <c r="M57" t="n">
-        <v>0.221650461473961</v>
+        <v>1.53622511659083</v>
       </c>
       <c r="N57" t="n">
-        <v>-0.037948801067241</v>
+        <v>0.360753006342956</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5579,7 +5571,7 @@
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q57" t="n">
@@ -5618,7 +5610,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -5633,31 +5625,31 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>0.801552810668512</v>
+        <v>0.922685124017092</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.7333333333333329</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>108</v>
+        <v>5.11</v>
       </c>
       <c r="K58" t="n">
-        <v>0.500914285714286</v>
+        <v>0.113827599102468</v>
       </c>
       <c r="L58" t="n">
-        <v>-0.38212566285967</v>
+        <v>-0.0385772308900599</v>
       </c>
       <c r="M58" t="n">
-        <v>1.53377024033603</v>
+        <v>0.189472651992086</v>
       </c>
       <c r="N58" t="n">
-        <v>0.463809523809524</v>
+        <v>2.22754597069409</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -5666,7 +5658,7 @@
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q58" t="n">
@@ -5720,7 +5712,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0.615408445713287</v>
+        <v>0.843931987290083</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
@@ -5735,16 +5727,16 @@
         <v>108.5</v>
       </c>
       <c r="K59" t="n">
-        <v>0.141417257606893</v>
+        <v>0.400605549599508</v>
       </c>
       <c r="L59" t="n">
-        <v>-0.419843093388174</v>
+        <v>-0.115355590315627</v>
       </c>
       <c r="M59" t="n">
-        <v>0.663814435751601</v>
+        <v>0.934286954609841</v>
       </c>
       <c r="N59" t="n">
-        <v>0.130338486273634</v>
+        <v>0.369221704700008</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -5753,7 +5745,7 @@
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q59" t="n">

--- a/trend_results/Rivers/WhanganuiatTeMaire_feb28a0ac0.xlsx
+++ b/trend_results/Rivers/WhanganuiatTeMaire_feb28a0ac0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="67">
   <si>
     <t>site name</t>
   </si>
@@ -142,46 +142,49 @@
     <t>WARNING: Sen slope influenced by censored values</t>
   </si>
   <si>
+    <t>WARNING: Sen slope based on tied non-censored values</t>
+  </si>
+  <si>
     <t>RepSite</t>
   </si>
   <si>
+    <t>Exceptionally unlikely improving</t>
+  </si>
+  <si>
+    <t>Very unlikely increasing</t>
+  </si>
+  <si>
     <t>Extremely unlikely improving</t>
   </si>
   <si>
-    <t>Exceptionally unlikely increasing</t>
+    <t>As likely as not improving</t>
+  </si>
+  <si>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
+    <t>Likely increasing</t>
+  </si>
+  <si>
+    <t>Very unlikely improving</t>
+  </si>
+  <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
+    <t>Unlikely increasing</t>
+  </si>
+  <si>
+    <t>Extremely likely improving</t>
   </si>
   <si>
     <t>Unlikely improving</t>
   </si>
   <si>
-    <t>Very unlikely improving</t>
-  </si>
-  <si>
-    <t>Virtually certain improving</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely improving</t>
-  </si>
-  <si>
-    <t>Very unlikely increasing</t>
-  </si>
-  <si>
-    <t>Extremely unlikely increasing</t>
-  </si>
-  <si>
-    <t>Extremely likely improving</t>
-  </si>
-  <si>
     <t>As likely as not increasing</t>
   </si>
   <si>
-    <t>Unlikely increasing</t>
-  </si>
-  <si>
-    <t>As likely as not improving</t>
-  </si>
-  <si>
-    <t>Likely improving</t>
+    <t>Extremely likely increasing</t>
   </si>
   <si>
     <t>Very likely improving</t>
@@ -569,7 +572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W59"/>
+  <dimension ref="A1:W64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -663,37 +666,37 @@
         <v>39</v>
       </c>
       <c r="F2">
-        <v>0.030027867270261</v>
+        <v>0.005988188350687</v>
       </c>
       <c r="G2">
-        <v>0.0625</v>
+        <v>0.0454545454545455</v>
       </c>
       <c r="H2">
-        <v>0.5</v>
+        <v>0.545454545454545</v>
       </c>
       <c r="I2">
         <v>2</v>
       </c>
       <c r="J2">
-        <v>0.85</v>
+        <v>0.46</v>
       </c>
       <c r="K2">
-        <v>-0.123861760619056</v>
+        <v>-0.133115439817546</v>
       </c>
       <c r="L2">
-        <v>-0.229356357927786</v>
+        <v>-0.279049330214124</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>-0.028698072748016</v>
       </c>
       <c r="N2">
-        <v>-14.571971837536</v>
+        <v>-28.9381390907708</v>
       </c>
       <c r="O2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q2">
         <v>1789705</v>
@@ -702,19 +705,19 @@
         <v>5687325</v>
       </c>
       <c r="S2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -734,37 +737,37 @@
         <v>39</v>
       </c>
       <c r="F3">
-        <v>0.001023866076834</v>
+        <v>0.078290203544817</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.945454545454545</v>
+        <v>0.886792452830189</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.55</v>
+        <v>10.53</v>
       </c>
       <c r="K3">
-        <v>-0.145641287284145</v>
+        <v>-0.0980976255886971</v>
       </c>
       <c r="L3">
-        <v>-0.200315016639136</v>
+        <v>-0.180032594428937</v>
       </c>
       <c r="M3">
-        <v>-0.0852155979172161</v>
+        <v>0.0252932501560653</v>
       </c>
       <c r="N3">
-        <v>-1.38048613539474</v>
+        <v>-0.9316013826087099</v>
       </c>
       <c r="O3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q3">
         <v>1789705</v>
@@ -773,19 +776,19 @@
         <v>5687325</v>
       </c>
       <c r="S3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -805,13 +808,13 @@
         <v>39</v>
       </c>
       <c r="F4">
-        <v>0.117305503934907</v>
+        <v>0.025846979323217</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.403508771929825</v>
+        <v>0.368421052631579</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -820,22 +823,22 @@
         <v>0.013</v>
       </c>
       <c r="K4">
-        <v>0.0006836808207611</v>
+        <v>0.0009482909607693</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.001695053219314</v>
+        <v>0.0016286457243164</v>
       </c>
       <c r="N4">
-        <v>5.25908323662407</v>
+        <v>7.2945458520718</v>
       </c>
       <c r="O4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q4">
         <v>1789705</v>
@@ -844,19 +847,19 @@
         <v>5687325</v>
       </c>
       <c r="S4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -876,37 +879,37 @@
         <v>39</v>
       </c>
       <c r="F5">
-        <v>0.0987396075580713</v>
+        <v>0.347219900317795</v>
       </c>
       <c r="G5">
-        <v>0.0350877192982456</v>
+        <v>0.0363636363636364</v>
       </c>
       <c r="H5">
-        <v>0.789473684210526</v>
+        <v>0.9090909090909089</v>
       </c>
       <c r="I5">
         <v>2</v>
       </c>
       <c r="J5">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="K5">
-        <v>13.489125439578</v>
+        <v>4.3869881710646</v>
       </c>
       <c r="L5">
-        <v>-2.28962498840915</v>
+        <v>-22.8519902918462</v>
       </c>
       <c r="M5">
-        <v>45.2936038706254</v>
+        <v>28.1450975974476</v>
       </c>
       <c r="N5">
-        <v>10.3762503381369</v>
+        <v>3.13356297933186</v>
       </c>
       <c r="O5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q5">
         <v>1789705</v>
@@ -915,19 +918,19 @@
         <v>5687325</v>
       </c>
       <c r="S5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -947,13 +950,13 @@
         <v>40</v>
       </c>
       <c r="F6">
-        <v>0.283426290542196</v>
+        <v>0.0322926941479068</v>
       </c>
       <c r="G6">
-        <v>0.803921568627451</v>
+        <v>0.745098039215686</v>
       </c>
       <c r="H6">
-        <v>0.215686274509804</v>
+        <v>0.274509803921569</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -974,10 +977,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q6">
         <v>1789705</v>
@@ -986,19 +989,19 @@
         <v>5687325</v>
       </c>
       <c r="S6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1018,37 +1021,37 @@
         <v>41</v>
       </c>
       <c r="F7">
-        <v>0.997388337329814</v>
+        <v>0.999950891932051</v>
       </c>
       <c r="G7">
-        <v>0.350877192982456</v>
+        <v>0.508771929824561</v>
       </c>
       <c r="H7">
-        <v>0.12280701754386</v>
+        <v>0.087719298245614</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="K7">
-        <v>-0.0002851288056206</v>
+        <v>-0.0002642376373626</v>
       </c>
       <c r="L7">
-        <v>-0.000597985722228</v>
+        <v>-0.0007091723986575</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>-9.504293520686961</v>
+        <v>-26.4237637362637</v>
       </c>
       <c r="O7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q7">
         <v>1789705</v>
@@ -1057,19 +1060,19 @@
         <v>5687325</v>
       </c>
       <c r="S7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1089,7 +1092,7 @@
         <v>39</v>
       </c>
       <c r="F8">
-        <v>0.0005950401917273</v>
+        <v>0.0209152972826223</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1104,22 +1107,22 @@
         <v>0.262</v>
       </c>
       <c r="K8">
-        <v>0.0315208253132218</v>
+        <v>0.014884271978022</v>
       </c>
       <c r="L8">
-        <v>0.014718175958372</v>
+        <v>0.0041033182099321</v>
       </c>
       <c r="M8">
-        <v>0.053175942770925</v>
+        <v>0.0292086083470946</v>
       </c>
       <c r="N8">
-        <v>12.0308493561915</v>
+        <v>5.68101983893969</v>
       </c>
       <c r="O8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q8">
         <v>1789705</v>
@@ -1128,19 +1131,19 @@
         <v>5687325</v>
       </c>
       <c r="S8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1160,34 +1163,34 @@
         <v>39</v>
       </c>
       <c r="F9">
-        <v>0.0557511508929009</v>
+        <v>0.783438462557065</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.701754385964912</v>
+        <v>0.759259259259259</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.58</v>
+        <v>7.585</v>
       </c>
       <c r="K9">
-        <v>-0.0305118284493286</v>
+        <v>0.0196900269541784</v>
       </c>
       <c r="L9">
-        <v>-0.0634018361764527</v>
+        <v>-0.018615441745022</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.0532904374969871</v>
       </c>
       <c r="N9">
-        <v>-0.402530718328873</v>
+        <v>0.259591653977302</v>
       </c>
       <c r="O9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P9" t="s">
         <v>49</v>
@@ -1199,16 +1202,16 @@
         <v>5687325</v>
       </c>
       <c r="S9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1228,13 +1231,13 @@
         <v>39</v>
       </c>
       <c r="F10">
-        <v>0.0003469188754496</v>
+        <v>0.0414865303622063</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.982456140350877</v>
+        <v>0.947368421052632</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1243,22 +1246,22 @@
         <v>0.272</v>
       </c>
       <c r="K10">
-        <v>0.0425786886347348</v>
+        <v>0.0207376373626374</v>
       </c>
       <c r="L10">
-        <v>0.0173271249594668</v>
+        <v>0.0012945753910707</v>
       </c>
       <c r="M10">
-        <v>0.0534090608742422</v>
+        <v>0.040872050864709</v>
       </c>
       <c r="N10">
-        <v>15.6539296451231</v>
+        <v>7.62413138332256</v>
       </c>
       <c r="O10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q10">
         <v>1789705</v>
@@ -1267,19 +1270,19 @@
         <v>5687325</v>
       </c>
       <c r="S10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1299,7 +1302,7 @@
         <v>39</v>
       </c>
       <c r="F11">
-        <v>0.0039849400587781</v>
+        <v>0.0652850090578681</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1311,25 +1314,25 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.42</v>
+        <v>0.45</v>
       </c>
       <c r="K11">
-        <v>0.0426459478021978</v>
+        <v>0.0234134615384616</v>
       </c>
       <c r="L11">
-        <v>0.0210817834442764</v>
+        <v>-0.00439240762187</v>
       </c>
       <c r="M11">
-        <v>0.0822985948283589</v>
+        <v>0.0451285386690847</v>
       </c>
       <c r="N11">
-        <v>10.1537970957614</v>
+        <v>5.20299145299146</v>
       </c>
       <c r="O11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q11">
         <v>1789705</v>
@@ -1338,19 +1341,19 @@
         <v>5687325</v>
       </c>
       <c r="S11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1367,10 +1370,10 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F12">
-        <v>0.006194044191948</v>
+        <v>0.478019344068386</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1385,22 +1388,22 @@
         <v>0.031</v>
       </c>
       <c r="K12">
-        <v>0.0036552526420947</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.0012570455081444</v>
+        <v>-0.0022844992966145</v>
       </c>
       <c r="M12">
-        <v>0.0065833370725558</v>
+        <v>0.0026172474963022</v>
       </c>
       <c r="N12">
-        <v>11.7911375551443</v>
+        <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q12">
         <v>1789705</v>
@@ -1409,19 +1412,19 @@
         <v>5687325</v>
       </c>
       <c r="S12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1435,13 +1438,13 @@
         <v>5</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="s">
         <v>39</v>
       </c>
       <c r="F13">
-        <v>0.0414865303622063</v>
+        <v>0.834131900683752</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1456,22 +1459,22 @@
         <v>5.04</v>
       </c>
       <c r="K13">
-        <v>0.813367692387057</v>
+        <v>-0.303455966930266</v>
       </c>
       <c r="L13">
-        <v>0.0510675227586623</v>
+        <v>-0.953743976320796</v>
       </c>
       <c r="M13">
-        <v>1.99710428107548</v>
+        <v>0.219693745157081</v>
       </c>
       <c r="N13">
-        <v>16.1382478648226</v>
+        <v>-6.02095172480687</v>
       </c>
       <c r="O13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P13" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="Q13">
         <v>1789705</v>
@@ -1480,19 +1483,19 @@
         <v>5687325</v>
       </c>
       <c r="S13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1512,37 +1515,37 @@
         <v>39</v>
       </c>
       <c r="F14">
-        <v>0.158072507251409</v>
+        <v>0.0372207061577871</v>
       </c>
       <c r="G14">
-        <v>0.0612244897959184</v>
+        <v>0.05</v>
       </c>
       <c r="H14">
-        <v>0.357142857142857</v>
+        <v>0.35</v>
       </c>
       <c r="I14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J14">
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="K14">
-        <v>-0.0196160042964554</v>
+        <v>-0.033025735230999</v>
       </c>
       <c r="L14">
-        <v>-0.0627454062287006</v>
+        <v>-0.070880516135991</v>
       </c>
       <c r="M14">
-        <v>0.0076041673731192</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>-2.17955603293949</v>
+        <v>-4.4034313641332</v>
       </c>
       <c r="O14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q14">
         <v>1789705</v>
@@ -1551,19 +1554,19 @@
         <v>5687325</v>
       </c>
       <c r="S14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1583,13 +1586,13 @@
         <v>39</v>
       </c>
       <c r="F15">
-        <v>0.037459533889564</v>
+        <v>0.256771210812247</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.875</v>
+        <v>0.839285714285714</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1598,22 +1601,22 @@
         <v>10.53</v>
       </c>
       <c r="K15">
-        <v>-0.040082304526749</v>
+        <v>-0.0200686813186809</v>
       </c>
       <c r="L15">
-        <v>-0.0702403846153845</v>
+        <v>-0.0518123813310187</v>
       </c>
       <c r="M15">
-        <v>-0.0056715084871636</v>
+        <v>0.0123346858571549</v>
       </c>
       <c r="N15">
-        <v>-0.380648665971026</v>
+        <v>-0.19058576750884</v>
       </c>
       <c r="O15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P15" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q15">
         <v>1789705</v>
@@ -1622,19 +1625,19 @@
         <v>5687325</v>
       </c>
       <c r="S15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1654,37 +1657,37 @@
         <v>39</v>
       </c>
       <c r="F16">
-        <v>0.95124481969737</v>
+        <v>0.95179568038548</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.247863247863248</v>
+        <v>0.230769230769231</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.015</v>
+        <v>0.014</v>
       </c>
       <c r="K16">
-        <v>-0.0003259485159056</v>
+        <v>-0.000289077958053</v>
       </c>
       <c r="L16">
-        <v>-0.0006929561970147</v>
+        <v>-0.0006264252016739</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>-2.17299010603793</v>
+        <v>-2.06484255752162</v>
       </c>
       <c r="O16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="Q16">
         <v>1789705</v>
@@ -1693,19 +1696,19 @@
         <v>5687325</v>
       </c>
       <c r="S16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1725,37 +1728,37 @@
         <v>39</v>
       </c>
       <c r="F17">
-        <v>0.0225924946797752</v>
+        <v>0.134210132088204</v>
       </c>
       <c r="G17">
-        <v>0.0172413793103448</v>
+        <v>0.0175438596491228</v>
       </c>
       <c r="H17">
-        <v>0.637931034482759</v>
+        <v>0.701754385964912</v>
       </c>
       <c r="I17">
         <v>2</v>
       </c>
       <c r="J17">
-        <v>131.5</v>
+        <v>140</v>
       </c>
       <c r="K17">
-        <v>6.69724958949097</v>
+        <v>4.43160469667319</v>
       </c>
       <c r="L17">
-        <v>1.84600111074251</v>
+        <v>-3.07075812772846</v>
       </c>
       <c r="M17">
-        <v>14.4246068560941</v>
+        <v>11.3857808993565</v>
       </c>
       <c r="N17">
-        <v>5.09296546729351</v>
+        <v>3.16543192619514</v>
       </c>
       <c r="O17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P17" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="Q17">
         <v>1789705</v>
@@ -1764,19 +1767,19 @@
         <v>5687325</v>
       </c>
       <c r="S17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1796,13 +1799,13 @@
         <v>40</v>
       </c>
       <c r="F18">
-        <v>0.154720301045927</v>
+        <v>0.0293663539623229</v>
       </c>
       <c r="G18">
-        <v>0.836538461538462</v>
+        <v>0.8</v>
       </c>
       <c r="H18">
-        <v>0.182692307692308</v>
+        <v>0.219047619047619</v>
       </c>
       <c r="I18">
         <v>2</v>
@@ -1823,10 +1826,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q18">
         <v>1789705</v>
@@ -1835,19 +1838,19 @@
         <v>5687325</v>
       </c>
       <c r="S18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1867,13 +1870,13 @@
         <v>41</v>
       </c>
       <c r="F19">
-        <v>0.999668704848504</v>
+        <v>0.9999999554603211</v>
       </c>
       <c r="G19">
-        <v>0.239316239316239</v>
+        <v>0.324786324786325</v>
       </c>
       <c r="H19">
-        <v>0.136752136752137</v>
+        <v>0.11965811965812</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -1882,22 +1885,22 @@
         <v>0.003</v>
       </c>
       <c r="K19">
-        <v>-0.0001999178981937</v>
+        <v>-0.0003201139351446</v>
       </c>
       <c r="L19">
-        <v>-0.0003410364145658</v>
+        <v>-0.000438475390156</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>-0.0001843765774861</v>
       </c>
       <c r="N19">
-        <v>-6.66392993979201</v>
+        <v>-10.6704645048203</v>
       </c>
       <c r="O19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q19">
         <v>1789705</v>
@@ -1906,19 +1909,19 @@
         <v>5687325</v>
       </c>
       <c r="S19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1938,37 +1941,37 @@
         <v>39</v>
       </c>
       <c r="F20">
-        <v>0.0003027728659991</v>
+        <v>0.109378321986445</v>
       </c>
       <c r="G20">
-        <v>0.0598290598290598</v>
+        <v>0.0341880341880342</v>
       </c>
       <c r="H20">
-        <v>0.888888888888889</v>
+        <v>0.897435897435897</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.239</v>
+        <v>0.248</v>
       </c>
       <c r="K20">
-        <v>0.0072247252747252</v>
+        <v>0.003138711001642</v>
       </c>
       <c r="L20">
-        <v>0.003279528947166</v>
+        <v>-0.0011754479261933</v>
       </c>
       <c r="M20">
-        <v>0.0138357616162184</v>
+        <v>0.0084298983967346</v>
       </c>
       <c r="N20">
-        <v>3.02289760448756</v>
+        <v>1.26560927485566</v>
       </c>
       <c r="O20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P20" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="Q20">
         <v>1789705</v>
@@ -1977,19 +1980,19 @@
         <v>5687325</v>
       </c>
       <c r="S20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2009,7 +2012,7 @@
         <v>39</v>
       </c>
       <c r="F21">
-        <v>0.010829870800753</v>
+        <v>0.161584097823001</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2021,25 +2024,25 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.61</v>
+        <v>7.62</v>
       </c>
       <c r="K21">
-        <v>-0.01385381280875</v>
+        <v>-0.0067479625627627</v>
       </c>
       <c r="L21">
-        <v>-0.0240565929992787</v>
+        <v>-0.0178417430860499</v>
       </c>
       <c r="M21">
-        <v>-0.003920316316867</v>
+        <v>0.0042530137756254</v>
       </c>
       <c r="N21">
-        <v>-0.182047474490801</v>
+        <v>-0.0885559391438679</v>
       </c>
       <c r="O21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P21" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q21">
         <v>1789705</v>
@@ -2048,16 +2051,16 @@
         <v>5687325</v>
       </c>
       <c r="S21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2077,37 +2080,37 @@
         <v>39</v>
       </c>
       <c r="F22">
-        <v>6.550064163755769E-05</v>
+        <v>0.0744079740077533</v>
       </c>
       <c r="G22">
         <v>0.008547008547008499</v>
       </c>
       <c r="H22">
-        <v>0.888888888888889</v>
+        <v>0.863247863247863</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.255</v>
+        <v>0.257</v>
       </c>
       <c r="K22">
-        <v>0.009845013477088899</v>
+        <v>0.0050171703296703</v>
       </c>
       <c r="L22">
-        <v>0.005389906918714</v>
+        <v>-0.0008147721424767</v>
       </c>
       <c r="M22">
-        <v>0.0161919801115535</v>
+        <v>0.0096611361607674</v>
       </c>
       <c r="N22">
-        <v>3.86078959885841</v>
+        <v>1.95220635395733</v>
       </c>
       <c r="O22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P22" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q22">
         <v>1789705</v>
@@ -2116,19 +2119,19 @@
         <v>5687325</v>
       </c>
       <c r="S22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2145,40 +2148,40 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F23">
-        <v>0.0382890816715487</v>
+        <v>0.383899365383891</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.615384615384615</v>
+        <v>0.564102564102564</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.42</v>
+        <v>0.45</v>
       </c>
       <c r="K23">
-        <v>0.0070015974440894</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>-0.0068264508863367</v>
       </c>
       <c r="M23">
-        <v>0.0171990173386323</v>
+        <v>0.0066781569425256</v>
       </c>
       <c r="N23">
-        <v>1.66704701049749</v>
+        <v>0</v>
       </c>
       <c r="O23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P23" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="Q23">
         <v>1789705</v>
@@ -2187,19 +2190,19 @@
         <v>5687325</v>
       </c>
       <c r="S23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2219,7 +2222,7 @@
         <v>39</v>
       </c>
       <c r="F24">
-        <v>0.0193314839046293</v>
+        <v>0.185137553953344</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -2231,25 +2234,25 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.031</v>
+        <v>0.03</v>
       </c>
       <c r="K24">
-        <v>0.000871462193664</v>
+        <v>0.0003463453202187</v>
       </c>
       <c r="L24">
-        <v>0.000128269938703</v>
+        <v>-0.0002864030698166</v>
       </c>
       <c r="M24">
-        <v>0.0016860660306558</v>
+        <v>0.001103945548972</v>
       </c>
       <c r="N24">
-        <v>2.81116836665831</v>
+        <v>1.15448440072916</v>
       </c>
       <c r="O24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P24" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="Q24">
         <v>1789705</v>
@@ -2258,19 +2261,19 @@
         <v>5687325</v>
       </c>
       <c r="S24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2290,37 +2293,37 @@
         <v>39</v>
       </c>
       <c r="F25">
-        <v>0.0606233533692331</v>
+        <v>0.457447509687175</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.948717948717949</v>
+        <v>0.974358974358974</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>4.66</v>
+        <v>4.8</v>
       </c>
       <c r="K25">
-        <v>0.1113364422202</v>
+        <v>0.0116693290734825</v>
       </c>
       <c r="L25">
-        <v>-0.0164170354159735</v>
+        <v>-0.135014520139696</v>
       </c>
       <c r="M25">
-        <v>0.457332725401873</v>
+        <v>0.166451393648862</v>
       </c>
       <c r="N25">
-        <v>2.38919403906009</v>
+        <v>0.243111022364218</v>
       </c>
       <c r="O25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q25">
         <v>1789705</v>
@@ -2329,19 +2332,19 @@
         <v>5687325</v>
       </c>
       <c r="S25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2361,34 +2364,34 @@
         <v>39</v>
       </c>
       <c r="F26">
-        <v>0.066210788191677</v>
+        <v>0.041157489475508</v>
       </c>
       <c r="G26">
-        <v>0.0476190476190476</v>
+        <v>0.0479452054794521</v>
       </c>
       <c r="H26">
-        <v>0.387755102040816</v>
+        <v>0.356164383561644</v>
       </c>
       <c r="I26">
         <v>3</v>
       </c>
       <c r="J26">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K26">
-        <v>-0.0204497898823112</v>
+        <v>-0.0209077899452464</v>
       </c>
       <c r="L26">
-        <v>-0.0498688258695859</v>
+        <v>-0.0443088337790869</v>
       </c>
       <c r="M26">
         <v>0</v>
       </c>
       <c r="N26">
-        <v>-2.27219887581236</v>
+        <v>-2.6134737431558</v>
       </c>
       <c r="O26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P26" t="s">
         <v>46</v>
@@ -2400,19 +2403,19 @@
         <v>5687325</v>
       </c>
       <c r="S26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W26" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2432,37 +2435,37 @@
         <v>39</v>
       </c>
       <c r="F27">
-        <v>0.41992894764238</v>
+        <v>0.562824257709427</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.7928994082840241</v>
+        <v>0.784431137724551</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>10.47</v>
+        <v>10.53</v>
       </c>
       <c r="K27">
-        <v>-0.0050171703296702</v>
+        <v>0.0016670470104974</v>
       </c>
       <c r="L27">
-        <v>-0.0298777249088116</v>
+        <v>-0.0222512767976451</v>
       </c>
       <c r="M27">
-        <v>0.0177382815097695</v>
+        <v>0.0209964747115603</v>
       </c>
       <c r="N27">
-        <v>-0.0479194873894004</v>
+        <v>0.0158314056077631</v>
       </c>
       <c r="O27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P27" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="Q27">
         <v>1789705</v>
@@ -2471,19 +2474,19 @@
         <v>5687325</v>
       </c>
       <c r="S27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W27" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2503,7 +2506,7 @@
         <v>39</v>
       </c>
       <c r="F28">
-        <v>1.68085127463757E-05</v>
+        <v>0.0024974029922365</v>
       </c>
       <c r="G28">
         <v>0.0340909090909091</v>
@@ -2518,22 +2521,22 @@
         <v>0.013</v>
       </c>
       <c r="K28">
-        <v>0.0004271520354009</v>
+        <v>0.0002845001257919</v>
       </c>
       <c r="L28">
-        <v>0.0002523218240047</v>
+        <v>9.75300400534045E-05</v>
       </c>
       <c r="M28">
-        <v>0.0005983781127129</v>
+        <v>0.0004577067669172</v>
       </c>
       <c r="N28">
-        <v>3.2857848876998</v>
+        <v>2.18846250609163</v>
       </c>
       <c r="O28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P28" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="Q28">
         <v>1789705</v>
@@ -2542,19 +2545,19 @@
         <v>5687325</v>
       </c>
       <c r="S28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V28" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W28" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2571,40 +2574,40 @@
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F29">
-        <v>0.228568912887875</v>
+        <v>0.5</v>
       </c>
       <c r="G29">
-        <v>0.0114285714285714</v>
+        <v>0.0115606936416185</v>
       </c>
       <c r="H29">
-        <v>0.662857142857143</v>
+        <v>0.687861271676301</v>
       </c>
       <c r="I29">
         <v>2</v>
       </c>
       <c r="J29">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="K29">
-        <v>1.7313926581596</v>
+        <v>0</v>
       </c>
       <c r="L29">
-        <v>-2.11880336658595</v>
+        <v>-3.66689762491865</v>
       </c>
       <c r="M29">
-        <v>4.62902720628175</v>
+        <v>3.55086594844086</v>
       </c>
       <c r="N29">
-        <v>1.33184050627661</v>
+        <v>0</v>
       </c>
       <c r="O29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P29" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q29">
         <v>1789705</v>
@@ -2613,19 +2616,19 @@
         <v>5687325</v>
       </c>
       <c r="S29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W29" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2645,16 +2648,16 @@
         <v>40</v>
       </c>
       <c r="F30">
-        <v>0.310607017349685</v>
+        <v>0.18482132369478</v>
       </c>
       <c r="G30">
-        <v>0.829113924050633</v>
+        <v>0.79746835443038</v>
       </c>
       <c r="H30">
-        <v>0.19620253164557</v>
+        <v>0.215189873417722</v>
       </c>
       <c r="I30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J30">
         <v>0.005</v>
@@ -2672,10 +2675,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P30" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="Q30">
         <v>1789705</v>
@@ -2684,19 +2687,19 @@
         <v>5687325</v>
       </c>
       <c r="S30" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2716,13 +2719,13 @@
         <v>41</v>
       </c>
       <c r="F31">
-        <v>0.0770460824734579</v>
+        <v>0.468998272943404</v>
       </c>
       <c r="G31">
-        <v>0.391566265060241</v>
+        <v>0.420454545454545</v>
       </c>
       <c r="H31">
-        <v>0.102409638554217</v>
+        <v>0.0965909090909091</v>
       </c>
       <c r="I31">
         <v>2</v>
@@ -2743,10 +2746,10 @@
         <v>0</v>
       </c>
       <c r="O31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q31">
         <v>1789705</v>
@@ -2755,19 +2758,19 @@
         <v>5687325</v>
       </c>
       <c r="S31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V31" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W31" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2784,40 +2787,40 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F32">
-        <v>0.0013196898691457</v>
+        <v>0.01553821944251</v>
       </c>
       <c r="G32">
-        <v>0.0602409638554217</v>
+        <v>0.0568181818181818</v>
       </c>
       <c r="H32">
-        <v>0.86144578313253</v>
+        <v>0.857954545454545</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
       <c r="J32">
-        <v>0.237</v>
+        <v>0.23275</v>
       </c>
       <c r="K32">
-        <v>0.0044485576923076</v>
+        <v>0.0031076603399</v>
       </c>
       <c r="L32">
-        <v>0.0020465999088974</v>
+        <v>0.0003778520454036</v>
       </c>
       <c r="M32">
-        <v>0.0072982855903395</v>
+        <v>0.0053116975798973</v>
       </c>
       <c r="N32">
-        <v>1.87702856215514</v>
+        <v>1.33519241241677</v>
       </c>
       <c r="O32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q32">
         <v>1789705</v>
@@ -2826,19 +2829,19 @@
         <v>5687325</v>
       </c>
       <c r="S32" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V32" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W32" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2852,43 +2855,43 @@
         <v>15</v>
       </c>
       <c r="D33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="s">
         <v>39</v>
       </c>
       <c r="F33">
-        <v>0.247602731185065</v>
+        <v>0.232099558074084</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0.491017964071856</v>
+        <v>0.469879518072289</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>7.61</v>
+        <v>7.62</v>
       </c>
       <c r="K33">
-        <v>-0.0033034717416803</v>
+        <v>-0.002666707228036</v>
       </c>
       <c r="L33">
-        <v>-0.0107281029753577</v>
+        <v>-0.009920366501991301</v>
       </c>
       <c r="M33">
-        <v>0.0039972101637835</v>
+        <v>0.0037343345142815</v>
       </c>
       <c r="N33">
-        <v>-0.0434096155279942</v>
+        <v>-0.034996157848242</v>
       </c>
       <c r="O33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q33">
         <v>1789705</v>
@@ -2897,16 +2900,16 @@
         <v>5687325</v>
       </c>
       <c r="S33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T33" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V33" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2926,37 +2929,37 @@
         <v>39</v>
       </c>
       <c r="F34">
-        <v>0.0020140556051688</v>
+        <v>0.0150783823525687</v>
       </c>
       <c r="G34">
         <v>0.0056818181818181</v>
       </c>
       <c r="H34">
-        <v>0.886363636363636</v>
+        <v>0.869318181818182</v>
       </c>
       <c r="I34">
         <v>1</v>
       </c>
       <c r="J34">
-        <v>0.24745</v>
+        <v>0.2452</v>
       </c>
       <c r="K34">
-        <v>0.0044611916925988</v>
+        <v>0.0040632870511646</v>
       </c>
       <c r="L34">
-        <v>0.0017938279294199</v>
+        <v>0.0009971891805619999</v>
       </c>
       <c r="M34">
-        <v>0.0070451636093989</v>
+        <v>0.0065850581447963</v>
       </c>
       <c r="N34">
-        <v>1.80286590931456</v>
+        <v>1.65713175006716</v>
       </c>
       <c r="O34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P34" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q34">
         <v>1789705</v>
@@ -2965,19 +2968,19 @@
         <v>5687325</v>
       </c>
       <c r="S34" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T34" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W34" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2994,40 +2997,40 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F35">
-        <v>0.07377487020937371</v>
+        <v>0.44710558732579</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0.613636363636364</v>
+        <v>0.5909090909090911</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0.425</v>
+        <v>0.4385</v>
       </c>
       <c r="K35">
-        <v>0.0025025693730729</v>
+        <v>0</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>-0.0042572681687162</v>
       </c>
       <c r="M35">
-        <v>0.0071477495107632</v>
+        <v>0.0033340940209949</v>
       </c>
       <c r="N35">
-        <v>0.5888398524877561</v>
+        <v>0</v>
       </c>
       <c r="O35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q35">
         <v>1789705</v>
@@ -3036,19 +3039,19 @@
         <v>5687325</v>
       </c>
       <c r="S35" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T35" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W35" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3068,13 +3071,13 @@
         <v>39</v>
       </c>
       <c r="F36">
-        <v>0.110238375871687</v>
+        <v>0.246692058442696</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0.392045454545455</v>
+        <v>0.380681818181818</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -3083,22 +3086,22 @@
         <v>0.03</v>
       </c>
       <c r="K36">
-        <v>0.0002674192575716</v>
+        <v>0.000149081632653</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>-0.0002371699260923</v>
       </c>
       <c r="M36">
-        <v>0.0007234234157901</v>
+        <v>0.0005576208127493</v>
       </c>
       <c r="N36">
-        <v>0.891397525238987</v>
+        <v>0.496938775510205</v>
       </c>
       <c r="O36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P36" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="Q36">
         <v>1789705</v>
@@ -3107,19 +3110,19 @@
         <v>5687325</v>
       </c>
       <c r="S36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T36" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V36" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W36" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3139,37 +3142,37 @@
         <v>39</v>
       </c>
       <c r="F37">
-        <v>0.128158633407645</v>
+        <v>0.70728009875381</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0.880681818181818</v>
+        <v>0.9034090909090911</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>4.35</v>
+        <v>4.73</v>
       </c>
       <c r="K37">
-        <v>0.0395110295909911</v>
+        <v>-0.0301030219780221</v>
       </c>
       <c r="L37">
-        <v>-0.028987595913236</v>
+        <v>-0.11250925447603</v>
       </c>
       <c r="M37">
-        <v>0.114577881164506</v>
+        <v>0.0356578186101438</v>
       </c>
       <c r="N37">
-        <v>0.908299530827381</v>
+        <v>-0.636427525962412</v>
       </c>
       <c r="O37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P37" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="Q37">
         <v>1789705</v>
@@ -3178,19 +3181,19 @@
         <v>5687325</v>
       </c>
       <c r="S37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V37" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W37" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3210,37 +3213,37 @@
         <v>39</v>
       </c>
       <c r="F38">
-        <v>0.000504600336758</v>
+        <v>0.0001755505267949</v>
       </c>
       <c r="G38">
         <v>0.0358974358974359</v>
       </c>
       <c r="H38">
-        <v>0.435897435897436</v>
+        <v>0.41025641025641</v>
       </c>
       <c r="I38">
         <v>3</v>
       </c>
       <c r="J38">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K38">
-        <v>-0.0285798122065728</v>
+        <v>-0.0284390782828283</v>
       </c>
       <c r="L38">
-        <v>-0.0448803919470567</v>
+        <v>-0.0408923577554622</v>
       </c>
       <c r="M38">
-        <v>-0.0143184650421442</v>
+        <v>-0.0154071303132892</v>
       </c>
       <c r="N38">
-        <v>-3.1755346896192</v>
+        <v>-3.55488478535354</v>
       </c>
       <c r="O38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P38" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="Q38">
         <v>1789705</v>
@@ -3249,19 +3252,19 @@
         <v>5687325</v>
       </c>
       <c r="S38" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T38" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V38" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W38" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3269,49 +3272,49 @@
         <v>23</v>
       </c>
       <c r="B39" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C39">
         <v>20</v>
       </c>
       <c r="D39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" t="s">
         <v>39</v>
       </c>
       <c r="F39">
-        <v>0.134239590549134</v>
+        <v>0.33572921781216</v>
       </c>
       <c r="G39">
-        <v>0.0391304347826087</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>0.165217391304348</v>
+        <v>0.772020725388601</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39">
-        <v>0.013</v>
+        <v>10.55</v>
       </c>
       <c r="K39">
-        <v>7.287509976057459E-05</v>
+        <v>-0.0066770770636612</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>-0.0249250731838733</v>
       </c>
       <c r="M39">
-        <v>0.0002147266313932</v>
+        <v>0.0132885171251509</v>
       </c>
       <c r="N39">
-        <v>0.560577690465958</v>
+        <v>-0.06328982998731041</v>
       </c>
       <c r="O39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P39" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="Q39">
         <v>1789705</v>
@@ -3320,16 +3323,16 @@
         <v>5687325</v>
       </c>
       <c r="S39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U39" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V39" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W39" t="s">
         <v>63</v>
@@ -3340,49 +3343,49 @@
         <v>23</v>
       </c>
       <c r="B40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C40">
         <v>20</v>
       </c>
       <c r="D40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40" t="s">
         <v>39</v>
       </c>
       <c r="F40">
-        <v>0.460156937482764</v>
+        <v>0.060867457129615</v>
       </c>
       <c r="G40">
-        <v>0.0087336244541484</v>
+        <v>0.038961038961039</v>
       </c>
       <c r="H40">
-        <v>0.62882096069869</v>
+        <v>0.155844155844156</v>
       </c>
       <c r="I40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J40">
-        <v>133</v>
+        <v>0.013</v>
       </c>
       <c r="K40">
-        <v>0.08697496216733561</v>
+        <v>9.53904413685034E-05</v>
       </c>
       <c r="L40">
-        <v>-2.67004108888334</v>
+        <v>0</v>
       </c>
       <c r="M40">
-        <v>2.27434546882244</v>
+        <v>0.0002323546288076</v>
       </c>
       <c r="N40">
-        <v>0.0653947083964929</v>
+        <v>0.733772625911565</v>
       </c>
       <c r="O40" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P40" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q40">
         <v>1789705</v>
@@ -3391,16 +3394,16 @@
         <v>5687325</v>
       </c>
       <c r="S40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U40" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V40" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W40" t="s">
         <v>64</v>
@@ -3411,49 +3414,49 @@
         <v>23</v>
       </c>
       <c r="B41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C41">
         <v>20</v>
       </c>
       <c r="D41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F41">
-        <v>0.96502402671521</v>
+        <v>0.281136357677368</v>
       </c>
       <c r="G41">
-        <v>0.797169811320755</v>
+        <v>0.0087336244541484</v>
       </c>
       <c r="H41">
-        <v>0.231132075471698</v>
+        <v>0.6637554585152839</v>
       </c>
       <c r="I41">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J41">
-        <v>0.005</v>
+        <v>131</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>1.00044201931931</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>-1.55593531734283</v>
       </c>
       <c r="M41">
-        <v>0</v>
+        <v>3.0103021978022</v>
       </c>
       <c r="N41">
-        <v>0</v>
+        <v>0.7636961979536701</v>
       </c>
       <c r="O41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P41" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="Q41">
         <v>1789705</v>
@@ -3462,19 +3465,19 @@
         <v>5687325</v>
       </c>
       <c r="S41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V41" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W41" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3482,49 +3485,49 @@
         <v>23</v>
       </c>
       <c r="B42" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C42">
         <v>20</v>
       </c>
       <c r="D42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F42">
-        <v>0.0016396543036112</v>
+        <v>0.5689488769104</v>
       </c>
       <c r="G42">
-        <v>0.0616113744075829</v>
+        <v>0.796208530805687</v>
       </c>
       <c r="H42">
-        <v>0.777251184834123</v>
+        <v>0.232227488151659</v>
       </c>
       <c r="I42">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J42">
-        <v>0.237</v>
+        <v>0.005</v>
       </c>
       <c r="K42">
-        <v>0.0029215125289605</v>
+        <v>0</v>
       </c>
       <c r="L42">
-        <v>0.0011028619604614</v>
+        <v>0</v>
       </c>
       <c r="M42">
-        <v>0.0047544717525216</v>
+        <v>0</v>
       </c>
       <c r="N42">
-        <v>1.23270570842218</v>
+        <v>0</v>
       </c>
       <c r="O42" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q42">
         <v>1789705</v>
@@ -3533,19 +3536,19 @@
         <v>5687325</v>
       </c>
       <c r="S42" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V42" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W42" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3553,7 +3556,7 @@
         <v>23</v>
       </c>
       <c r="B43" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C43">
         <v>20</v>
@@ -3565,37 +3568,37 @@
         <v>39</v>
       </c>
       <c r="F43">
-        <v>0.0043551334757387</v>
+        <v>0.0038835442764806</v>
       </c>
       <c r="G43">
-        <v>0.008695652173913</v>
+        <v>0.0566037735849057</v>
       </c>
       <c r="H43">
-        <v>0.839130434782609</v>
+        <v>0.816037735849057</v>
       </c>
       <c r="I43">
         <v>2</v>
       </c>
       <c r="J43">
-        <v>0.25025</v>
+        <v>0.237</v>
       </c>
       <c r="K43">
-        <v>0.002681718061674</v>
+        <v>0.0029242237442922</v>
       </c>
       <c r="L43">
-        <v>0.0009998646769299999</v>
+        <v>0.0010006525875114</v>
       </c>
       <c r="M43">
-        <v>0.0045653265857906</v>
+        <v>0.0046553272883779</v>
       </c>
       <c r="N43">
-        <v>1.07161560906054</v>
+        <v>1.23384968113597</v>
       </c>
       <c r="O43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P43" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="Q43">
         <v>1789705</v>
@@ -3604,19 +3607,19 @@
         <v>5687325</v>
       </c>
       <c r="S43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U43" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V43" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W43" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3624,7 +3627,7 @@
         <v>23</v>
       </c>
       <c r="B44" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C44">
         <v>20</v>
@@ -3636,37 +3639,37 @@
         <v>39</v>
       </c>
       <c r="F44">
-        <v>0.0805179025657824</v>
+        <v>0.986445082683003</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
       <c r="H44">
-        <v>0.857142857142857</v>
+        <v>0.484848484848485</v>
       </c>
       <c r="I44">
         <v>0</v>
       </c>
       <c r="J44">
-        <v>4.66</v>
+        <v>7.6</v>
       </c>
       <c r="K44">
-        <v>0.0375192702980473</v>
+        <v>0.0100137080191912</v>
       </c>
       <c r="L44">
-        <v>-0.008302377555381499</v>
+        <v>0.0024965823650034</v>
       </c>
       <c r="M44">
-        <v>0.0804547551741451</v>
+        <v>0.0163135229175814</v>
       </c>
       <c r="N44">
-        <v>0.805134555752088</v>
+        <v>0.13175931604199</v>
       </c>
       <c r="O44" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P44" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="Q44">
         <v>1789705</v>
@@ -3675,19 +3678,16 @@
         <v>5687325</v>
       </c>
       <c r="S44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U44" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V44" t="s">
-        <v>60</v>
-      </c>
-      <c r="W44" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3695,49 +3695,49 @@
         <v>23</v>
       </c>
       <c r="B45" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C45">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" t="s">
         <v>39</v>
       </c>
       <c r="F45">
-        <v>4.12370838710653E-12</v>
+        <v>0.008876166260775401</v>
       </c>
       <c r="G45">
-        <v>0.0555555555555556</v>
+        <v>0.008658008658008601</v>
       </c>
       <c r="H45">
-        <v>0.114035087719298</v>
+        <v>0.831168831168831</v>
       </c>
       <c r="I45">
         <v>2</v>
       </c>
       <c r="J45">
-        <v>0.011</v>
+        <v>0.2495</v>
       </c>
       <c r="K45">
-        <v>0.0002287626047469</v>
+        <v>0.0024476088943039</v>
       </c>
       <c r="L45">
-        <v>0.0001717294580282</v>
+        <v>0.0007582265633127</v>
       </c>
       <c r="M45">
-        <v>0.0002854311691188</v>
+        <v>0.0043488560747833</v>
       </c>
       <c r="N45">
-        <v>2.07966004315443</v>
+        <v>0.981005568859314</v>
       </c>
       <c r="O45" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P45" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="Q45">
         <v>1789705</v>
@@ -3746,16 +3746,16 @@
         <v>5687325</v>
       </c>
       <c r="S45" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U45" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V45" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W45" t="s">
         <v>63</v>
@@ -3766,49 +3766,49 @@
         <v>23</v>
       </c>
       <c r="B46" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C46">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F46">
-        <v>0.999999999997255</v>
+        <v>0.0634660831463392</v>
       </c>
       <c r="G46">
-        <v>0.643962848297214</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>0.325077399380805</v>
+        <v>0.538095238095238</v>
       </c>
       <c r="I46">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J46">
-        <v>0.005</v>
+        <v>0.425</v>
       </c>
       <c r="K46">
-        <v>0</v>
+        <v>0.0024694917904044</v>
       </c>
       <c r="L46">
         <v>0</v>
       </c>
       <c r="M46">
-        <v>0</v>
+        <v>0.0052396821677927</v>
       </c>
       <c r="N46">
-        <v>0</v>
+        <v>0.58105689185987</v>
       </c>
       <c r="O46" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P46" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q46">
         <v>1789705</v>
@@ -3817,16 +3817,16 @@
         <v>5687325</v>
       </c>
       <c r="S46" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T46" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U46" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V46" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W46" t="s">
         <v>63</v>
@@ -3837,49 +3837,49 @@
         <v>23</v>
       </c>
       <c r="B47" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C47">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F47">
-        <v>0.0003421375569271</v>
+        <v>0.40180524965764</v>
       </c>
       <c r="G47">
-        <v>0.0588235294117647</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>0.5665634674922601</v>
+        <v>0.347619047619048</v>
       </c>
       <c r="I47">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J47">
-        <v>0.22</v>
+        <v>0.03</v>
       </c>
       <c r="K47">
-        <v>0.0017237332339791</v>
+        <v>0</v>
       </c>
       <c r="L47">
-        <v>0.0007543223456023</v>
+        <v>-0.0002613562470953</v>
       </c>
       <c r="M47">
-        <v>0.0026761369258341</v>
+        <v>0.000332347588717</v>
       </c>
       <c r="N47">
-        <v>0.783515106354152</v>
+        <v>0</v>
       </c>
       <c r="O47" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q47">
         <v>1789705</v>
@@ -3888,16 +3888,16 @@
         <v>5687325</v>
       </c>
       <c r="S47" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T47" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U47" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V47" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W47" t="s">
         <v>63</v>
@@ -3908,10 +3908,10 @@
         <v>23</v>
       </c>
       <c r="B48" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C48">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D48" t="b">
         <v>1</v>
@@ -3920,37 +3920,37 @@
         <v>39</v>
       </c>
       <c r="F48">
-        <v>0.0165825031854001</v>
+        <v>0.210501468009184</v>
       </c>
       <c r="G48">
-        <v>0.0087719298245614</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>0.763157894736842</v>
+        <v>0.866379310344828</v>
       </c>
       <c r="I48">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J48">
-        <v>0.24055</v>
+        <v>4.385</v>
       </c>
       <c r="K48">
-        <v>0.0012305818612274</v>
+        <v>0.0216101418514195</v>
       </c>
       <c r="L48">
-        <v>0.0002599746109309</v>
+        <v>-0.0298640918098657</v>
       </c>
       <c r="M48">
-        <v>0.0021685153117411</v>
+        <v>0.06500573510385441</v>
       </c>
       <c r="N48">
-        <v>0.511570094045922</v>
+        <v>0.492819654536363</v>
       </c>
       <c r="O48" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P48" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="Q48">
         <v>1789705</v>
@@ -3959,19 +3959,19 @@
         <v>5687325</v>
       </c>
       <c r="S48" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T48" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U48" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V48" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W48" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -3979,7 +3979,7 @@
         <v>23</v>
       </c>
       <c r="B49" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C49">
         <v>30</v>
@@ -3991,37 +3991,37 @@
         <v>39</v>
       </c>
       <c r="F49">
-        <v>0.137904903783677</v>
+        <v>1.2451917896783E-07</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>0.02734375</v>
       </c>
       <c r="H49">
-        <v>0.730994152046784</v>
+        <v>0.4375</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J49">
-        <v>4.35</v>
+        <v>0.9</v>
       </c>
       <c r="K49">
-        <v>0.0168140632054561</v>
+        <v>-0.0314667320478817</v>
       </c>
       <c r="L49">
-        <v>-0.0089516720443262</v>
+        <v>-0.043794964028777</v>
       </c>
       <c r="M49">
-        <v>0.0431220628781364</v>
+        <v>-0.0229228139029515</v>
       </c>
       <c r="N49">
-        <v>0.386530188631175</v>
+        <v>-3.49630356087574</v>
       </c>
       <c r="O49" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q49">
         <v>1789705</v>
@@ -4030,19 +4030,19 @@
         <v>5687325</v>
       </c>
       <c r="S49" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T49" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U49" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V49" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W49" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -4050,10 +4050,10 @@
         <v>23</v>
       </c>
       <c r="B50" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C50">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D50" t="b">
         <v>0</v>
@@ -4062,37 +4062,37 @@
         <v>39</v>
       </c>
       <c r="F50">
-        <v>0.889664319040077</v>
+        <v>3.05028910590085E-09</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>0.0526315789473684</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0.114035087719298</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J50">
-        <v>0.451</v>
+        <v>0.011</v>
       </c>
       <c r="K50">
-        <v>0.0302617899294328</v>
+        <v>0.0001933460383375</v>
       </c>
       <c r="L50">
-        <v>-0.0115126706533204</v>
+        <v>0.0001372604284103</v>
       </c>
       <c r="M50">
-        <v>0.0602954804052944</v>
+        <v>0.0002519544722924</v>
       </c>
       <c r="N50">
-        <v>6.70993124821126</v>
+        <v>1.75769125761417</v>
       </c>
       <c r="O50" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P50" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="Q50">
         <v>1789705</v>
@@ -4101,16 +4101,19 @@
         <v>5687325</v>
       </c>
       <c r="S50" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T50" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U50" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V50" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="W50" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4118,49 +4121,49 @@
         <v>23</v>
       </c>
       <c r="B51" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C51">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D51" t="b">
         <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F51">
-        <v>0.95679463351315</v>
+        <v>0.999999999704753</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>0.649068322981366</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0.322981366459627</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J51">
-        <v>112.59</v>
+        <v>0.005</v>
       </c>
       <c r="K51">
-        <v>5.64838120644171</v>
+        <v>0</v>
       </c>
       <c r="L51">
-        <v>0.447178861232418</v>
+        <v>0</v>
       </c>
       <c r="M51">
-        <v>8.09264573565258</v>
+        <v>0</v>
       </c>
       <c r="N51">
-        <v>5.01676987871188</v>
+        <v>0</v>
       </c>
       <c r="O51" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P51" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="Q51">
         <v>1789705</v>
@@ -4169,16 +4172,19 @@
         <v>5687325</v>
       </c>
       <c r="S51" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T51" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U51" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V51" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="W51" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4186,49 +4192,49 @@
         <v>23</v>
       </c>
       <c r="B52" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C52">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52" t="s">
         <v>39</v>
       </c>
       <c r="F52">
-        <v>0.768783636774762</v>
+        <v>0.02495574500146</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>0.0557275541795666</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0.594427244582043</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J52">
-        <v>5.44</v>
+        <v>0.23</v>
       </c>
       <c r="K52">
-        <v>0.41059448765074</v>
+        <v>0.0009454270923209</v>
       </c>
       <c r="L52">
-        <v>-0.395459341572689</v>
+        <v>0</v>
       </c>
       <c r="M52">
-        <v>0.951425624635427</v>
+        <v>0.0019907172080698</v>
       </c>
       <c r="N52">
-        <v>7.54769278769742</v>
+        <v>0.411055257530855</v>
       </c>
       <c r="O52" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P52" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="Q52">
         <v>1789705</v>
@@ -4237,16 +4243,19 @@
         <v>5687325</v>
       </c>
       <c r="S52" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T52" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U52" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V52" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="W52" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4254,46 +4263,46 @@
         <v>23</v>
       </c>
       <c r="B53" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C53">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53" t="s">
         <v>39</v>
       </c>
       <c r="F53">
-        <v>0.5</v>
+        <v>0.182333693904855</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>0.0087719298245614</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0.7485380116959059</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J53">
-        <v>0.466</v>
+        <v>0.2445</v>
       </c>
       <c r="K53">
-        <v>0.0004768276762402</v>
+        <v>0.0005211652794292</v>
       </c>
       <c r="L53">
-        <v>-0.0126545337342441</v>
+        <v>-0.0003939329974375</v>
       </c>
       <c r="M53">
-        <v>0.0250900646183431</v>
+        <v>0.0015621784676766</v>
       </c>
       <c r="N53">
-        <v>0.102323535673865</v>
+        <v>0.213155533508896</v>
       </c>
       <c r="O53" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P53" t="s">
         <v>54</v>
@@ -4305,16 +4314,19 @@
         <v>5687325</v>
       </c>
       <c r="S53" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T53" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U53" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V53" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="W53" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4322,49 +4334,49 @@
         <v>23</v>
       </c>
       <c r="B54" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C54">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F54">
-        <v>0.878482519852739</v>
+        <v>0.511087720256919</v>
       </c>
       <c r="G54">
         <v>0</v>
       </c>
       <c r="H54">
-        <v>0.9</v>
+        <v>0.754385964912281</v>
       </c>
       <c r="I54">
         <v>0</v>
       </c>
       <c r="J54">
-        <v>110.295</v>
+        <v>4.4</v>
       </c>
       <c r="K54">
-        <v>1.41297404844291</v>
+        <v>0</v>
       </c>
       <c r="L54">
-        <v>-0.313996542118926</v>
+        <v>-0.0349304762759759</v>
       </c>
       <c r="M54">
-        <v>2.63108519213877</v>
+        <v>0.027093929804795</v>
       </c>
       <c r="N54">
-        <v>1.28108622189846</v>
+        <v>0</v>
       </c>
       <c r="O54" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P54" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="Q54">
         <v>1789705</v>
@@ -4373,16 +4385,19 @@
         <v>5687325</v>
       </c>
       <c r="S54" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T54" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U54" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V54" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="W54" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4390,10 +4405,10 @@
         <v>23</v>
       </c>
       <c r="B55" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C55">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D55" t="b">
         <v>0</v>
@@ -4402,7 +4417,7 @@
         <v>39</v>
       </c>
       <c r="F55">
-        <v>0.8584345646688269</v>
+        <v>0.889664319040077</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -4414,25 +4429,25 @@
         <v>0</v>
       </c>
       <c r="J55">
-        <v>5.365</v>
+        <v>0.46</v>
       </c>
       <c r="K55">
-        <v>0.165604119765871</v>
+        <v>0.027155060281425</v>
       </c>
       <c r="L55">
-        <v>-0.0740084822294708</v>
+        <v>-0.0115126706533204</v>
       </c>
       <c r="M55">
-        <v>0.413410125448037</v>
+        <v>0.0528748467475774</v>
       </c>
       <c r="N55">
-        <v>3.08674966944774</v>
+        <v>5.90327397422282</v>
       </c>
       <c r="O55" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P55" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="Q55">
         <v>1789705</v>
@@ -4441,16 +4456,16 @@
         <v>5687325</v>
       </c>
       <c r="S55" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T55" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U55" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V55" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4458,10 +4473,10 @@
         <v>23</v>
       </c>
       <c r="B56" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C56">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D56" t="b">
         <v>0</v>
@@ -4470,7 +4485,7 @@
         <v>39</v>
       </c>
       <c r="F56">
-        <v>0.8857800955056619</v>
+        <v>0.95679463351315</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -4482,25 +4497,25 @@
         <v>0</v>
       </c>
       <c r="J56">
-        <v>0.4555</v>
+        <v>117</v>
       </c>
       <c r="K56">
-        <v>0.0070413584398117</v>
+        <v>3.82528396918221</v>
       </c>
       <c r="L56">
-        <v>-0.0043838161702568</v>
+        <v>0.266919902268469</v>
       </c>
       <c r="M56">
-        <v>0.0178537169537173</v>
+        <v>6.77455979230215</v>
       </c>
       <c r="N56">
-        <v>1.5458525663692</v>
+        <v>3.26947347793351</v>
       </c>
       <c r="O56" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P56" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q56">
         <v>1789705</v>
@@ -4509,16 +4524,16 @@
         <v>5687325</v>
       </c>
       <c r="S56" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T56" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U56" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V56" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4526,10 +4541,10 @@
         <v>23</v>
       </c>
       <c r="B57" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C57">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D57" t="b">
         <v>0</v>
@@ -4538,37 +4553,37 @@
         <v>39</v>
       </c>
       <c r="F57">
-        <v>0.787088110490277</v>
+        <v>0.768783636774762</v>
       </c>
       <c r="G57">
         <v>0</v>
       </c>
       <c r="H57">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57">
-        <v>112.59</v>
+        <v>5.514</v>
       </c>
       <c r="K57">
-        <v>0.406171809841535</v>
+        <v>0.433404059851284</v>
       </c>
       <c r="L57">
-        <v>-0.382027468825085</v>
+        <v>-0.395459341572689</v>
       </c>
       <c r="M57">
-        <v>1.53622511659083</v>
+        <v>1.143190388758</v>
       </c>
       <c r="N57">
-        <v>0.360753006342956</v>
+        <v>7.86006637379913</v>
       </c>
       <c r="O57" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P57" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="Q57">
         <v>1789705</v>
@@ -4577,16 +4592,16 @@
         <v>5687325</v>
       </c>
       <c r="S57" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T57" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U57" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V57" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -4594,10 +4609,10 @@
         <v>23</v>
       </c>
       <c r="B58" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C58">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D58" t="b">
         <v>0</v>
@@ -4606,7 +4621,7 @@
         <v>39</v>
       </c>
       <c r="F58">
-        <v>0.922685124017092</v>
+        <v>0.5</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -4618,25 +4633,25 @@
         <v>0</v>
       </c>
       <c r="J58">
-        <v>5.11</v>
+        <v>0.4725</v>
       </c>
       <c r="K58">
-        <v>0.113827599102468</v>
+        <v>0.0004768276762402</v>
       </c>
       <c r="L58">
-        <v>-0.0385772308900599</v>
+        <v>-0.0137667008598049</v>
       </c>
       <c r="M58">
-        <v>0.189472651992086</v>
+        <v>0.0272822583056208</v>
       </c>
       <c r="N58">
-        <v>2.22754597069409</v>
+        <v>0.100915910315388</v>
       </c>
       <c r="O58" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P58" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="Q58">
         <v>1789705</v>
@@ -4645,16 +4660,16 @@
         <v>5687325</v>
       </c>
       <c r="S58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U58" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V58" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -4665,7 +4680,7 @@
         <v>37</v>
       </c>
       <c r="C59">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D59" t="b">
         <v>0</v>
@@ -4674,55 +4689,395 @@
         <v>39</v>
       </c>
       <c r="F59">
-        <v>0.843931987290083</v>
+        <v>0.963180864939849</v>
       </c>
       <c r="G59">
         <v>0</v>
       </c>
       <c r="H59">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59">
+        <v>112.795</v>
+      </c>
+      <c r="K59">
+        <v>1.79513433813893</v>
+      </c>
+      <c r="L59">
+        <v>0.362999710994688</v>
+      </c>
+      <c r="M59">
+        <v>3.52476489838858</v>
+      </c>
+      <c r="N59">
+        <v>1.59150169612033</v>
+      </c>
+      <c r="O59" t="s">
+        <v>43</v>
+      </c>
+      <c r="P59" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q59">
+        <v>1789705</v>
+      </c>
+      <c r="R59">
+        <v>5687325</v>
+      </c>
+      <c r="S59" t="s">
+        <v>58</v>
+      </c>
+      <c r="T59" t="s">
+        <v>59</v>
+      </c>
+      <c r="U59" t="s">
+        <v>60</v>
+      </c>
+      <c r="V59" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23">
+      <c r="A60" t="s">
+        <v>23</v>
+      </c>
+      <c r="B60" t="s">
+        <v>38</v>
+      </c>
+      <c r="C60">
+        <v>10</v>
+      </c>
+      <c r="D60" t="b">
+        <v>0</v>
+      </c>
+      <c r="E60" t="s">
+        <v>39</v>
+      </c>
+      <c r="F60">
+        <v>0.894751149972331</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>5.445</v>
+      </c>
+      <c r="K60">
+        <v>0.1734565807327</v>
+      </c>
+      <c r="L60">
+        <v>-0.0740084822294708</v>
+      </c>
+      <c r="M60">
+        <v>0.425689003820247</v>
+      </c>
+      <c r="N60">
+        <v>3.18561213466851</v>
+      </c>
+      <c r="O60" t="s">
+        <v>43</v>
+      </c>
+      <c r="P60" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q60">
+        <v>1789705</v>
+      </c>
+      <c r="R60">
+        <v>5687325</v>
+      </c>
+      <c r="S60" t="s">
+        <v>58</v>
+      </c>
+      <c r="T60" t="s">
+        <v>59</v>
+      </c>
+      <c r="U60" t="s">
+        <v>60</v>
+      </c>
+      <c r="V60" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23">
+      <c r="A61" t="s">
+        <v>23</v>
+      </c>
+      <c r="B61" t="s">
+        <v>36</v>
+      </c>
+      <c r="C61">
+        <v>15</v>
+      </c>
+      <c r="D61" t="b">
+        <v>0</v>
+      </c>
+      <c r="E61" t="s">
+        <v>39</v>
+      </c>
+      <c r="F61">
+        <v>0.953770202444569</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0.46</v>
+      </c>
+      <c r="K61">
+        <v>0.0098268591293833</v>
+      </c>
+      <c r="L61">
+        <v>0.0001842039674324</v>
+      </c>
+      <c r="M61">
+        <v>0.0184885551788956</v>
+      </c>
+      <c r="N61">
+        <v>2.13627372377898</v>
+      </c>
+      <c r="O61" t="s">
+        <v>43</v>
+      </c>
+      <c r="P61" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q61">
+        <v>1789705</v>
+      </c>
+      <c r="R61">
+        <v>5687325</v>
+      </c>
+      <c r="S61" t="s">
+        <v>58</v>
+      </c>
+      <c r="T61" t="s">
+        <v>59</v>
+      </c>
+      <c r="U61" t="s">
+        <v>60</v>
+      </c>
+      <c r="V61" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23">
+      <c r="A62" t="s">
+        <v>23</v>
+      </c>
+      <c r="B62" t="s">
+        <v>37</v>
+      </c>
+      <c r="C62">
+        <v>15</v>
+      </c>
+      <c r="D62" t="b">
+        <v>0</v>
+      </c>
+      <c r="E62" t="s">
+        <v>39</v>
+      </c>
+      <c r="F62">
+        <v>0.901444974114342</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0.866666666666667</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>113</v>
+      </c>
+      <c r="K62">
+        <v>0.751085300837777</v>
+      </c>
+      <c r="L62">
+        <v>-0.125267447064239</v>
+      </c>
+      <c r="M62">
+        <v>1.84385200329039</v>
+      </c>
+      <c r="N62">
+        <v>0.664677257378564</v>
+      </c>
+      <c r="O62" t="s">
+        <v>43</v>
+      </c>
+      <c r="P62" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q62">
+        <v>1789705</v>
+      </c>
+      <c r="R62">
+        <v>5687325</v>
+      </c>
+      <c r="S62" t="s">
+        <v>58</v>
+      </c>
+      <c r="T62" t="s">
+        <v>59</v>
+      </c>
+      <c r="U62" t="s">
+        <v>60</v>
+      </c>
+      <c r="V62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23">
+      <c r="A63" t="s">
+        <v>23</v>
+      </c>
+      <c r="B63" t="s">
+        <v>38</v>
+      </c>
+      <c r="C63">
+        <v>15</v>
+      </c>
+      <c r="D63" t="b">
+        <v>0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>39</v>
+      </c>
+      <c r="F63">
+        <v>0.976119378662448</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>5.29</v>
+      </c>
+      <c r="K63">
+        <v>0.132636039495337</v>
+      </c>
+      <c r="L63">
+        <v>0.0370563373733818</v>
+      </c>
+      <c r="M63">
+        <v>0.228014623574172</v>
+      </c>
+      <c r="N63">
+        <v>2.50729753299314</v>
+      </c>
+      <c r="O63" t="s">
+        <v>43</v>
+      </c>
+      <c r="P63" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q63">
+        <v>1789705</v>
+      </c>
+      <c r="R63">
+        <v>5687325</v>
+      </c>
+      <c r="S63" t="s">
+        <v>58</v>
+      </c>
+      <c r="T63" t="s">
+        <v>59</v>
+      </c>
+      <c r="U63" t="s">
+        <v>60</v>
+      </c>
+      <c r="V63" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23">
+      <c r="A64" t="s">
+        <v>23</v>
+      </c>
+      <c r="B64" t="s">
+        <v>37</v>
+      </c>
+      <c r="C64">
+        <v>20</v>
+      </c>
+      <c r="D64" t="b">
+        <v>0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>39</v>
+      </c>
+      <c r="F64">
+        <v>0.974723310030834</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0.75</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
         <v>108.5</v>
       </c>
-      <c r="K59">
-        <v>0.400605549599508</v>
-      </c>
-      <c r="L59">
-        <v>-0.115355590315627</v>
-      </c>
-      <c r="M59">
-        <v>0.934286954609841</v>
-      </c>
-      <c r="N59">
-        <v>0.369221704700008</v>
-      </c>
-      <c r="O59" t="s">
-        <v>42</v>
-      </c>
-      <c r="P59" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q59">
-        <v>1789705</v>
-      </c>
-      <c r="R59">
-        <v>5687325</v>
-      </c>
-      <c r="S59" t="s">
-        <v>57</v>
-      </c>
-      <c r="T59" t="s">
-        <v>58</v>
-      </c>
-      <c r="U59" t="s">
-        <v>59</v>
-      </c>
-      <c r="V59" t="s">
-        <v>60</v>
+      <c r="K64">
+        <v>0.699905931917338</v>
+      </c>
+      <c r="L64">
+        <v>0.192918968490502</v>
+      </c>
+      <c r="M64">
+        <v>1.27796847888218</v>
+      </c>
+      <c r="N64">
+        <v>0.645074591628883</v>
+      </c>
+      <c r="O64" t="s">
+        <v>43</v>
+      </c>
+      <c r="P64" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q64">
+        <v>1789705</v>
+      </c>
+      <c r="R64">
+        <v>5687325</v>
+      </c>
+      <c r="S64" t="s">
+        <v>58</v>
+      </c>
+      <c r="T64" t="s">
+        <v>59</v>
+      </c>
+      <c r="U64" t="s">
+        <v>60</v>
+      </c>
+      <c r="V64" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
